--- a/HME_R_Analysis/HMEData-for-R/Index Normal Force.xlsx
+++ b/HME_R_Analysis/HMEData-for-R/Index Normal Force.xlsx
@@ -13,187 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="120">
-  <si>
-    <t>SubjectNum</t>
-  </si>
-  <si>
-    <t>Subject1</t>
-  </si>
-  <si>
-    <t>Subject2</t>
-  </si>
-  <si>
-    <t>Subject3</t>
-  </si>
-  <si>
-    <t>Subject4</t>
-  </si>
-  <si>
-    <t>Subject5</t>
-  </si>
-  <si>
-    <t>Subject6</t>
-  </si>
-  <si>
-    <t>Subject7</t>
-  </si>
-  <si>
-    <t>Subject8</t>
-  </si>
-  <si>
-    <t>Subject9</t>
-  </si>
-  <si>
-    <t>Subject10</t>
-  </si>
-  <si>
-    <t>Subject11</t>
-  </si>
-  <si>
-    <t>Subject12</t>
-  </si>
-  <si>
-    <t>Subject13</t>
-  </si>
-  <si>
-    <t>Subject14</t>
-  </si>
-  <si>
-    <t>Subject15</t>
-  </si>
-  <si>
-    <t>Subject16</t>
-  </si>
-  <si>
-    <t>Subject17</t>
-  </si>
-  <si>
-    <t>Subject18</t>
-  </si>
-  <si>
-    <t>Subject1</t>
-  </si>
-  <si>
-    <t>Subject2</t>
-  </si>
-  <si>
-    <t>Subject3</t>
-  </si>
-  <si>
-    <t>Subject4</t>
-  </si>
-  <si>
-    <t>Subject5</t>
-  </si>
-  <si>
-    <t>Subject6</t>
-  </si>
-  <si>
-    <t>Subject7</t>
-  </si>
-  <si>
-    <t>Subject8</t>
-  </si>
-  <si>
-    <t>Subject9</t>
-  </si>
-  <si>
-    <t>Subject10</t>
-  </si>
-  <si>
-    <t>Subject11</t>
-  </si>
-  <si>
-    <t>Subject12</t>
-  </si>
-  <si>
-    <t>Subject13</t>
-  </si>
-  <si>
-    <t>Subject14</t>
-  </si>
-  <si>
-    <t>Subject15</t>
-  </si>
-  <si>
-    <t>Subject16</t>
-  </si>
-  <si>
-    <t>Subject17</t>
-  </si>
-  <si>
-    <t>Subject18</t>
-  </si>
-  <si>
-    <t>Subject1</t>
-  </si>
-  <si>
-    <t>Subject2</t>
-  </si>
-  <si>
-    <t>Subject3</t>
-  </si>
-  <si>
-    <t>Subject4</t>
-  </si>
-  <si>
-    <t>Subject5</t>
-  </si>
-  <si>
-    <t>Subject6</t>
-  </si>
-  <si>
-    <t>Subject7</t>
-  </si>
-  <si>
-    <t>Subject8</t>
-  </si>
-  <si>
-    <t>Subject9</t>
-  </si>
-  <si>
-    <t>Subject10</t>
-  </si>
-  <si>
-    <t>Subject11</t>
-  </si>
-  <si>
-    <t>Subject12</t>
-  </si>
-  <si>
-    <t>Subject13</t>
-  </si>
-  <si>
-    <t>Subject14</t>
-  </si>
-  <si>
-    <t>Subject15</t>
-  </si>
-  <si>
-    <t>Subject16</t>
-  </si>
-  <si>
-    <t>Subject17</t>
-  </si>
-  <si>
-    <t>Subject18</t>
-  </si>
-  <si>
-    <t>Mappings</t>
-  </si>
-  <si>
-    <t>Mapping1</t>
-  </si>
-  <si>
-    <t>Mapping3</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="60">
   <si>
     <t>SubjectNum</t>
   </si>
@@ -428,21 +248,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0">
         <v>3.5890772376854834</v>
@@ -450,10 +270,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C3" s="0">
         <v>3.7850026824420779</v>
@@ -461,10 +281,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C4" s="0">
         <v>3.3458012773808106</v>
@@ -472,10 +292,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C5" s="0">
         <v>3.078321857625967</v>
@@ -483,10 +303,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C6" s="0">
         <v>1.7029397782202251</v>
@@ -494,10 +314,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C7" s="0">
         <v>3.5097804822478</v>
@@ -505,10 +325,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0">
         <v>4.4386317941494298</v>
@@ -516,10 +336,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C9" s="0">
         <v>3.5773230818476622</v>
@@ -527,10 +347,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C10" s="0">
         <v>1.8137315198427337</v>
@@ -538,10 +358,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C11" s="0">
         <v>4.5409004611223969</v>
@@ -549,10 +369,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0">
         <v>7.2110907627994667</v>
@@ -560,10 +380,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0">
         <v>4.8299316674268651</v>
@@ -571,10 +391,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C14" s="0">
         <v>2.854735644436635</v>
@@ -582,10 +402,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C15" s="0">
         <v>3.6482542784553615</v>
@@ -593,10 +413,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0">
         <v>3.7177384972029834</v>
@@ -604,10 +424,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C17" s="0">
         <v>2.9518076221114988</v>
@@ -615,10 +435,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C18" s="0">
         <v>4.5366812180066161</v>
@@ -626,10 +446,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0">
         <v>4.4038866534845198</v>
@@ -637,10 +457,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C20" s="0">
         <v>4.0369977891602966</v>
@@ -648,10 +468,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C21" s="0">
         <v>6.6811250917905793</v>
@@ -659,10 +479,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C22" s="0">
         <v>3.9811280349079552</v>
@@ -670,10 +490,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C23" s="0">
         <v>1.3349458869878317</v>
@@ -681,10 +501,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C24" s="0">
         <v>5.0709032829008214</v>
@@ -692,10 +512,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C25" s="0">
         <v>6.8868101497703575</v>
@@ -703,10 +523,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C26" s="0">
         <v>4.7901192122944387</v>
@@ -714,10 +534,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C27" s="0">
         <v>6.212139176073455</v>
@@ -725,10 +545,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C28" s="0">
         <v>5.0726052146456535</v>
@@ -736,10 +556,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C29" s="0">
         <v>5.5935534091477885</v>
@@ -747,10 +567,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C30" s="0">
         <v>6.4210955809766208</v>
@@ -758,10 +578,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C31" s="0">
         <v>5.3251439665877562</v>
@@ -769,10 +589,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C32" s="0">
         <v>4.9392117998902645</v>
@@ -780,10 +600,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C33" s="0">
         <v>5.6966971042790409</v>
@@ -791,10 +611,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C34" s="0">
         <v>7.3503995540162093</v>
@@ -802,10 +622,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C35" s="0">
         <v>6.0790375792320432</v>
@@ -813,10 +633,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C36" s="0">
         <v>8.3692142197705017</v>
@@ -824,10 +644,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C37" s="0">
         <v>5.3801421957652629</v>
@@ -835,10 +655,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C38" s="0">
         <v>8.3306136434732885</v>
@@ -846,10 +666,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C39" s="0">
         <v>6.4861633961825182</v>
@@ -857,10 +677,10 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C40" s="0">
         <v>7.7403350064203957</v>
@@ -868,10 +688,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C41" s="0">
         <v>5.6840303852466771</v>
@@ -879,10 +699,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C42" s="0">
         <v>6.9113124695898227</v>
@@ -890,10 +710,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C43" s="0">
         <v>2.5732539218663262</v>
@@ -901,10 +721,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C44" s="0">
         <v>3.3242582572950945</v>
@@ -912,10 +732,10 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C45" s="0">
         <v>9.5758123575586112</v>
@@ -923,10 +743,10 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C46" s="0">
         <v>2.6002141390883402</v>
@@ -934,10 +754,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C47" s="0">
         <v>5.5705032334760745</v>
@@ -945,10 +765,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C48" s="0">
         <v>5.0640470914251896</v>
@@ -956,10 +776,10 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C49" s="0">
         <v>3.9278488407516621</v>
@@ -967,10 +787,10 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C50" s="0">
         <v>2.520400754429942</v>
@@ -978,10 +798,10 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C51" s="0">
         <v>2.9234863910863713</v>
@@ -989,10 +809,10 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C52" s="0">
         <v>6.1955506937374878</v>
@@ -1000,10 +820,10 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C53" s="0">
         <v>5.6154618341949076</v>
@@ -1011,10 +831,10 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C54" s="0">
         <v>7.3422102576209562</v>
@@ -1022,10 +842,10 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C55" s="0">
         <v>3.883187565402709</v>
@@ -1033,10 +853,10 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C56" s="0">
         <v>6.2386496570754391</v>
@@ -1044,10 +864,10 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C57" s="0">
         <v>6.4802698880319998</v>
@@ -1055,10 +875,10 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C58" s="0">
         <v>4.4248487172874649</v>
@@ -1066,10 +886,10 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C59" s="0">
         <v>6.1331528721831097</v>
@@ -1077,10 +897,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C60" s="0">
         <v>5.7750220614963226</v>
@@ -1088,10 +908,10 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C61" s="0">
         <v>4.9179571773511563</v>
@@ -1099,10 +919,10 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C62" s="0">
         <v>3.9775747586754324</v>
@@ -1110,10 +930,10 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C63" s="0">
         <v>2.9169058925779909</v>
@@ -1121,10 +941,10 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C64" s="0">
         <v>4.3695111627171981</v>
@@ -1132,10 +952,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C65" s="0">
         <v>5.6891452360260164</v>
@@ -1143,10 +963,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C66" s="0">
         <v>3.0525676523864962</v>
@@ -1154,10 +974,10 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C67" s="0">
         <v>3.6269792505782568</v>
@@ -1165,10 +985,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C68" s="0">
         <v>4.1202327029602879</v>
@@ -1176,10 +996,10 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C69" s="0">
         <v>5.174397175595197</v>
@@ -1187,10 +1007,10 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C70" s="0">
         <v>7.3270513310318632</v>
@@ -1198,10 +1018,10 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C71" s="0">
         <v>2.7616260030031987</v>
@@ -1209,10 +1029,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C72" s="0">
         <v>4.8521568719396742</v>
@@ -1220,10 +1040,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C73" s="0">
         <v>6.1835278615174269</v>
@@ -1231,10 +1051,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C74" s="0">
         <v>4.7387112291839797</v>
@@ -1242,10 +1062,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C75" s="0">
         <v>4.473012287540338</v>
@@ -1253,10 +1073,10 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C76" s="0">
         <v>1.798625610302242</v>
@@ -1264,10 +1084,10 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C77" s="0">
         <v>7.4913296127833036</v>
@@ -1275,10 +1095,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C78" s="0">
         <v>5.1005209868780108</v>
@@ -1286,10 +1106,10 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C79" s="0">
         <v>4.6818245370385316</v>
@@ -1297,10 +1117,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C80" s="0">
         <v>6.9571343749608943</v>
@@ -1308,10 +1128,10 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C81" s="0">
         <v>9.032617403996138</v>
@@ -1319,10 +1139,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C82" s="0">
         <v>5.6960250001647381</v>
@@ -1330,10 +1150,10 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C83" s="0">
         <v>3.8201497826969053</v>
@@ -1341,10 +1161,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C84" s="0">
         <v>3.8019173291009092</v>
@@ -1352,10 +1172,10 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C85" s="0">
         <v>2.63572673324177</v>
@@ -1363,10 +1183,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C86" s="0">
         <v>4.9241965326221866</v>
@@ -1374,10 +1194,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C87" s="0">
         <v>3.9064742698536672</v>
@@ -1385,10 +1205,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C88" s="0">
         <v>4.3600127030343687</v>
@@ -1396,10 +1216,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C89" s="0">
         <v>4.6883951367642087</v>
@@ -1407,10 +1227,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C90" s="0">
         <v>3.3795031077508773</v>
@@ -1418,10 +1238,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C91" s="0">
         <v>3.2289858764158357</v>
@@ -1429,10 +1249,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C92" s="0">
         <v>4.6536211910038316</v>
@@ -1440,10 +1260,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C93" s="0">
         <v>10.597162315094002</v>
@@ -1451,10 +1271,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C94" s="0">
         <v>10.308565079955164</v>
@@ -1462,10 +1282,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C95" s="0">
         <v>7.668619768428834</v>
@@ -1473,10 +1293,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C96" s="0">
         <v>6.9970657849171314</v>
@@ -1484,10 +1304,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C97" s="0">
         <v>5.8544251191592451</v>
@@ -1495,10 +1315,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C98" s="0">
         <v>5.0529909151755623</v>
@@ -1506,10 +1326,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C99" s="0">
         <v>7.4364522338248626</v>
@@ -1517,10 +1337,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C100" s="0">
         <v>7.5376628661434042</v>
@@ -1528,10 +1348,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C101" s="0">
         <v>5.5564954310485755</v>
@@ -1539,10 +1359,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C102" s="0">
         <v>5.6845285955320914</v>
@@ -1550,10 +1370,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C103" s="0">
         <v>3.9114329528286871</v>
@@ -1561,10 +1381,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C104" s="0">
         <v>5.4393956337268179</v>
@@ -1572,10 +1392,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C105" s="0">
         <v>1.4090259127317299</v>
@@ -1583,10 +1403,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C106" s="0">
         <v>2.8728456679346119</v>
@@ -1594,10 +1414,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C107" s="0">
         <v>2.33391661327141</v>
@@ -1605,10 +1425,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C108" s="0">
         <v>5.6662872217943976</v>
@@ -1616,10 +1436,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C109" s="0">
         <v>3.1758180834066443</v>
@@ -1627,10 +1447,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C110" s="0">
         <v>6.121697198190013</v>
@@ -1638,10 +1458,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C111" s="0">
         <v>6.2439391503533477</v>
@@ -1649,10 +1469,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C112" s="0">
         <v>3.3284850569383395</v>
@@ -1660,10 +1480,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C113" s="0">
         <v>3.9909634112847123</v>
@@ -1671,10 +1491,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C114" s="0">
         <v>2.9274547986111936</v>
@@ -1682,10 +1502,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C115" s="0">
         <v>3.9472582717092957</v>
@@ -1693,10 +1513,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C116" s="0">
         <v>3.2049434602692282</v>
@@ -1704,10 +1524,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C117" s="0">
         <v>3.9700688996839109</v>
@@ -1715,10 +1535,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C118" s="0">
         <v>1.3523949880417667</v>
@@ -1726,10 +1546,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C119" s="0">
         <v>3.9600405553196856</v>
@@ -1737,10 +1557,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C120" s="0">
         <v>4.2376322786564797</v>
@@ -1748,10 +1568,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C121" s="0">
         <v>3.068473570241145</v>
@@ -1759,10 +1579,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C122" s="0">
         <v>1.4858348842173719</v>
@@ -1770,10 +1590,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C123" s="0">
         <v>5.4806202394044314</v>
@@ -1781,10 +1601,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C124" s="0">
         <v>4.1357120403728018</v>
@@ -1792,10 +1612,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C125" s="0">
         <v>3.3391435174012796</v>
@@ -1803,10 +1623,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C126" s="0">
         <v>1.298804271378678</v>
@@ -1814,10 +1634,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C127" s="0">
         <v>2.7496776202261994</v>
@@ -1825,10 +1645,10 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C128" s="0">
         <v>4.3112883982459431</v>
@@ -1836,10 +1656,10 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C129" s="0">
         <v>1.0605133857987961</v>
@@ -1847,10 +1667,10 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C130" s="0">
         <v>1.2733165850261159</v>
@@ -1858,10 +1678,10 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C131" s="0">
         <v>4.1811245682241687</v>
@@ -1869,10 +1689,10 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C132" s="0">
         <v>10.035916322507235</v>
@@ -1880,10 +1700,10 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C133" s="0">
         <v>9.1114665815947724</v>
@@ -1891,10 +1711,10 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C134" s="0">
         <v>7.29883691196813</v>
@@ -1902,10 +1722,10 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C135" s="0">
         <v>8.7429773212433748</v>
@@ -1913,10 +1733,10 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C136" s="0">
         <v>6.1673819082992702</v>
@@ -1924,10 +1744,10 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C137" s="0">
         <v>7.0689669122067587</v>
@@ -1935,10 +1755,10 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C138" s="0">
         <v>11.535396991465776</v>
@@ -1946,10 +1766,10 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C139" s="0">
         <v>9.8810896104880879</v>
@@ -1957,10 +1777,10 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C140" s="0">
         <v>9.3193495250089828</v>
@@ -1968,10 +1788,10 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C141" s="0">
         <v>9.7673802815418167</v>
@@ -1979,10 +1799,10 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C142" s="0">
         <v>6.1620246603860735</v>
@@ -1990,10 +1810,10 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C143" s="0">
         <v>1.4110160102242184</v>
@@ -2001,10 +1821,10 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C144" s="0">
         <v>3.1463987588512867</v>
@@ -2012,10 +1832,10 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C145" s="0">
         <v>2.1252750017640434</v>
@@ -2023,10 +1843,10 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C146" s="0">
         <v>1.5258696199753536</v>
@@ -2034,10 +1854,10 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C147" s="0">
         <v>3.2098061560296633</v>
@@ -2045,10 +1865,10 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C148" s="0">
         <v>2.6783683149117525</v>
@@ -2056,10 +1876,10 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C149" s="0">
         <v>2.7715715112839603</v>
@@ -2067,10 +1887,10 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C150" s="0">
         <v>3.1321686197507543</v>
@@ -2078,10 +1898,10 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C151" s="0">
         <v>3.0984923387388403</v>
@@ -2089,10 +1909,10 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C152" s="0">
         <v>7.2385656423065381</v>
@@ -2100,10 +1920,10 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C153" s="0">
         <v>8.2947257554126264</v>
@@ -2111,10 +1931,10 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C154" s="0">
         <v>5.504336403619055</v>
@@ -2122,10 +1942,10 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C155" s="0">
         <v>7.4219601756030791</v>
@@ -2133,10 +1953,10 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C156" s="0">
         <v>5.4884979975692945</v>
@@ -2144,10 +1964,10 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C157" s="0">
         <v>8.3041385093831863</v>
@@ -2155,10 +1975,10 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C158" s="0">
         <v>7.8835281860443827</v>
@@ -2166,10 +1986,10 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C159" s="0">
         <v>5.9340287151447466</v>
@@ -2177,10 +1997,10 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C160" s="0">
         <v>5.9915321332343874</v>
@@ -2188,10 +2008,10 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C161" s="0">
         <v>3.7128370490851754</v>
@@ -2199,10 +2019,10 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C162" s="0">
         <v>4.897693511583463</v>
@@ -2210,10 +2030,10 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C163" s="0">
         <v>2.7808139859457817</v>
@@ -2221,10 +2041,10 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C164" s="0">
         <v>3.6808670443369893</v>
@@ -2232,10 +2052,10 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C165" s="0">
         <v>4.0587514520679626</v>
@@ -2243,10 +2063,10 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C166" s="0">
         <v>3.5382423316630049</v>
@@ -2254,10 +2074,10 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C167" s="0">
         <v>3.6829465005613122</v>
@@ -2265,10 +2085,10 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C168" s="0">
         <v>2.0023229077769886</v>
@@ -2276,10 +2096,10 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C169" s="0">
         <v>2.9942460807792575</v>
@@ -2287,10 +2107,10 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C170" s="0">
         <v>2.4844683944629242</v>
@@ -2298,10 +2118,10 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C171" s="0">
         <v>2.8244919457727966</v>
@@ -2309,10 +2129,10 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C172" s="0">
         <v>4.482793057265738</v>
@@ -2320,10 +2140,10 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C173" s="0">
         <v>3.9500032992019261</v>
@@ -2331,10 +2151,10 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C174" s="0">
         <v>3.7870941281692367</v>
@@ -2342,10 +2162,10 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C175" s="0">
         <v>3.1365385720440506</v>
@@ -2353,10 +2173,10 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C176" s="0">
         <v>5.5698812420409904</v>
@@ -2364,10 +2184,10 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C177" s="0">
         <v>2.6708800595141802</v>
@@ -2375,10 +2195,10 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C178" s="0">
         <v>2.3102702978068099</v>
@@ -2386,10 +2206,10 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C179" s="0">
         <v>3.7471851548220148</v>
@@ -2397,10 +2217,10 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C180" s="0">
         <v>4.2444210692840389</v>
@@ -2408,10 +2228,10 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C181" s="0">
         <v>4.0741929458044712</v>
@@ -2419,10 +2239,10 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C182" s="0">
         <v>2.5084061147669909</v>
@@ -2430,10 +2250,10 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C183" s="0">
         <v>4.0311511399757212</v>
@@ -2441,10 +2261,10 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C184" s="0">
         <v>2.7303622642677223</v>
@@ -2452,10 +2272,10 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C185" s="0">
         <v>2.8964684887833299</v>
@@ -2463,10 +2283,10 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C186" s="0">
         <v>3.884455237147717</v>
@@ -2474,10 +2294,10 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C187" s="0">
         <v>1.8407242803274941</v>
@@ -2485,10 +2305,10 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C188" s="0">
         <v>2.7410679706535701</v>
@@ -2496,10 +2316,10 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C189" s="0">
         <v>2.4587268582061377</v>
@@ -2507,10 +2327,10 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C190" s="0">
         <v>3.8259862278112275</v>
@@ -2518,10 +2338,10 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C191" s="0">
         <v>4.2713948764883227</v>
@@ -2529,10 +2349,10 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C192" s="0">
         <v>5.6889796797387939</v>
@@ -2540,10 +2360,10 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C193" s="0">
         <v>3.8568501699258948</v>
@@ -2551,10 +2371,10 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C194" s="0">
         <v>2.4539220492744063</v>
@@ -2562,10 +2382,10 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C195" s="0">
         <v>2.9865130485064362</v>
@@ -2573,10 +2393,10 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C196" s="0">
         <v>3.2455022189490763</v>
@@ -2584,10 +2404,10 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C197" s="0">
         <v>2.8753265931116951</v>
@@ -2595,10 +2415,10 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C198" s="0">
         <v>4.799406428654029</v>
@@ -2606,10 +2426,10 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C199" s="0">
         <v>3.8206123889054888</v>
@@ -2617,10 +2437,10 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C200" s="0">
         <v>5.8260208268028748</v>
@@ -2628,10 +2448,10 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C201" s="0">
         <v>8.2010660901251651</v>
@@ -2639,10 +2459,10 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C202" s="0">
         <v>6.9071199207653562</v>
@@ -2650,10 +2470,10 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C203" s="0">
         <v>4.5266730646767019</v>
@@ -2661,10 +2481,10 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C204" s="0">
         <v>5.7845154731050457</v>
@@ -2672,10 +2492,10 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C205" s="0">
         <v>5.1554141520456183</v>
@@ -2683,10 +2503,10 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C206" s="0">
         <v>6.5088665715105094</v>
@@ -2694,10 +2514,10 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C207" s="0">
         <v>6.2875076388375</v>
@@ -2705,10 +2525,10 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C208" s="0">
         <v>6.3574122661994474</v>
@@ -2716,10 +2536,10 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C209" s="0">
         <v>6.2158527678100635</v>
@@ -2727,10 +2547,10 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C210" s="0">
         <v>5.461842672381068</v>
@@ -2738,10 +2558,10 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C211" s="0">
         <v>8.0993730730715168</v>
@@ -2749,10 +2569,10 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C212" s="0">
         <v>9.0882491853882144</v>
@@ -2760,10 +2580,10 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C213" s="0">
         <v>8.4195753477330584</v>
@@ -2771,10 +2591,10 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C214" s="0">
         <v>7.4499344589943526</v>
@@ -2782,10 +2602,10 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C215" s="0">
         <v>5.4557532132180828</v>
@@ -2793,10 +2613,10 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C216" s="0">
         <v>6.8547634822453647</v>
@@ -2804,10 +2624,10 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C217" s="0">
         <v>6.6354922279207953</v>
@@ -2815,10 +2635,10 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C218" s="0">
         <v>5.9912060775147848</v>
@@ -2826,10 +2646,10 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C219" s="0">
         <v>4.5283149927361945</v>
@@ -2837,10 +2657,10 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C220" s="0">
         <v>8.0338042125188078</v>
@@ -2848,10 +2668,10 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C221" s="0">
         <v>10.164074412369906</v>
@@ -2859,10 +2679,10 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C222" s="0">
         <v>4.0162092039036414</v>
@@ -2870,10 +2690,10 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C223" s="0">
         <v>3.9671789739505749</v>
@@ -2881,10 +2701,10 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C224" s="0">
         <v>6.8773832808885755</v>
@@ -2892,10 +2712,10 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C225" s="0">
         <v>3.2065894320166448</v>
@@ -2903,10 +2723,10 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C226" s="0">
         <v>4.8700653947936212</v>
@@ -2914,10 +2734,10 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C227" s="0">
         <v>6.1420481425735867</v>
@@ -2925,10 +2745,10 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C228" s="0">
         <v>3.7173636213564087</v>
@@ -2936,10 +2756,10 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C229" s="0">
         <v>5.1256944490636052</v>
@@ -2947,10 +2767,10 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C230" s="0">
         <v>5.1172744580961309</v>
@@ -2958,10 +2778,10 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C231" s="0">
         <v>3.3144449136441603</v>
@@ -2969,10 +2789,10 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C232" s="0">
         <v>1.7450586922202092</v>
@@ -2980,10 +2800,10 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C233" s="0">
         <v>6.6404544185762795</v>
@@ -2991,10 +2811,10 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C234" s="0">
         <v>8.0796002758718597</v>
@@ -3002,10 +2822,10 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C235" s="0">
         <v>6.8871906074235785</v>
@@ -3013,10 +2833,10 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C236" s="0">
         <v>7.176592806113125</v>
@@ -3024,10 +2844,10 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C237" s="0">
         <v>6.6336728033149539</v>
@@ -3035,10 +2855,10 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C238" s="0">
         <v>7.3227184894281052</v>
@@ -3046,10 +2866,10 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C239" s="0">
         <v>7.4999779329089673</v>
@@ -3057,10 +2877,10 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C240" s="0">
         <v>5.6789070080802579</v>
@@ -3068,10 +2888,10 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C241" s="0">
         <v>1.2051872406201198</v>
@@ -3079,10 +2899,10 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C242" s="0">
         <v>8.3767726423072375</v>
@@ -3090,10 +2910,10 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C243" s="0">
         <v>5.378119835887337</v>
@@ -3101,10 +2921,10 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C244" s="0">
         <v>8.8682437841130497</v>
@@ -3112,10 +2932,10 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C245" s="0">
         <v>13.348953561513177</v>
@@ -3123,10 +2943,10 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C246" s="0">
         <v>10.731254632492375</v>
@@ -3134,10 +2954,10 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C247" s="0">
         <v>9.5417968455248481</v>
@@ -3145,10 +2965,10 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C248" s="0">
         <v>4.3532110532611457</v>
@@ -3156,10 +2976,10 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C249" s="0">
         <v>13.523206981264702</v>
@@ -3167,10 +2987,10 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C250" s="0">
         <v>7.6880489106479439</v>
@@ -3178,10 +2998,10 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C251" s="0">
         <v>7.0398255986514746</v>
@@ -3189,10 +3009,10 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C252" s="0">
         <v>2.4580186731651139</v>
@@ -3200,10 +3020,10 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C253" s="0">
         <v>3.2848644599534622</v>
@@ -3211,10 +3031,10 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C254" s="0">
         <v>2.2536759557345669</v>
@@ -3222,10 +3042,10 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C255" s="0">
         <v>5.3185987565671251</v>
@@ -3233,10 +3053,10 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C256" s="0">
         <v>4.503015674008509</v>
@@ -3244,10 +3064,10 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C257" s="0">
         <v>4.818523717205105</v>
@@ -3255,10 +3075,10 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C258" s="0">
         <v>3.0460209189684133</v>
@@ -3266,10 +3086,10 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C259" s="0">
         <v>2.6787128745211359</v>
@@ -3277,10 +3097,10 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C260" s="0">
         <v>5.5488809389547447</v>
@@ -3288,10 +3108,10 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C261" s="0">
         <v>6.138708652123988</v>
@@ -3299,10 +3119,10 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C262" s="0">
         <v>6.4136769142275352</v>
@@ -3310,10 +3130,10 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C263" s="0">
         <v>4.7777611735563266</v>
@@ -3321,10 +3141,10 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C264" s="0">
         <v>3.819529970632817</v>
@@ -3332,10 +3152,10 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C265" s="0">
         <v>4.2925721869598172</v>
@@ -3343,10 +3163,10 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C266" s="0">
         <v>4.3624372130218836</v>
@@ -3354,10 +3174,10 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C267" s="0">
         <v>2.9179559758433502</v>
@@ -3365,10 +3185,10 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C268" s="0">
         <v>6.7419498467890886</v>
@@ -3376,10 +3196,10 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C269" s="0">
         <v>4.6604156397082876</v>
@@ -3387,10 +3207,10 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C270" s="0">
         <v>3.5456188476381869</v>
@@ -3398,10 +3218,10 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C271" s="0">
         <v>3.8781223419522455</v>
@@ -3409,10 +3229,10 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C272" s="0">
         <v>6.7992977542163144</v>
@@ -3420,10 +3240,10 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C273" s="0">
         <v>2.3605138254662568</v>
@@ -3431,10 +3251,10 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C274" s="0">
         <v>7.4773480317492167</v>
@@ -3442,10 +3262,10 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C275" s="0">
         <v>5.8766863368055384</v>
@@ -3453,10 +3273,10 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C276" s="0">
         <v>6.2258853742672677</v>
@@ -3464,10 +3284,10 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C277" s="0">
         <v>7.2292476965131831</v>
@@ -3475,10 +3295,10 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C278" s="0">
         <v>9.5250349903263132</v>
@@ -3486,10 +3306,10 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C279" s="0">
         <v>7.6356330112539279</v>
@@ -3497,10 +3317,10 @@
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C280" s="0">
         <v>9.6496257051043557</v>
@@ -3508,10 +3328,10 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C281" s="0">
         <v>8.7256891071342171</v>
@@ -3519,10 +3339,10 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C282" s="0">
         <v>3.5771588861928172</v>
@@ -3530,10 +3350,10 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C283" s="0">
         <v>3.1620430899962884</v>
@@ -3541,10 +3361,10 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C284" s="0">
         <v>2.5927205824205402</v>
@@ -3552,10 +3372,10 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C285" s="0">
         <v>3.4466052651449837</v>
@@ -3563,10 +3383,10 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C286" s="0">
         <v>3.3325434971311014</v>
@@ -3574,10 +3394,10 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C287" s="0">
         <v>3.5012307790092736</v>
@@ -3585,10 +3405,10 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C288" s="0">
         <v>4.268885495786825</v>
@@ -3596,10 +3416,10 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C289" s="0">
         <v>3.9322832399698564</v>
@@ -3607,10 +3427,10 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C290" s="0">
         <v>3.4780575693470932</v>
@@ -3618,10 +3438,10 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C291" s="0">
         <v>3.3873826064563515</v>
@@ -3629,10 +3449,10 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C292" s="0">
         <v>2.9396598658656092</v>
@@ -3640,10 +3460,10 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C293" s="0">
         <v>4.3501962856775229</v>
@@ -3651,10 +3471,10 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C294" s="0">
         <v>4.9381631440148945</v>
@@ -3662,10 +3482,10 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C295" s="0">
         <v>3.7506422916385418</v>
@@ -3673,10 +3493,10 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C296" s="0">
         <v>4.9440489687230933</v>
@@ -3684,10 +3504,10 @@
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C297" s="0">
         <v>3.5808070836480175</v>
@@ -3695,10 +3515,10 @@
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C298" s="0">
         <v>3.5746119568900316</v>
@@ -3706,10 +3526,10 @@
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C299" s="0">
         <v>3.8034125962852738</v>
@@ -3717,10 +3537,10 @@
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C300" s="0">
         <v>3.788933763010768</v>
@@ -3728,10 +3548,10 @@
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C301" s="0">
         <v>1.7748729819276352</v>
@@ -3739,10 +3559,10 @@
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C302" s="0">
         <v>4.6005231231352086</v>
@@ -3750,10 +3570,10 @@
     </row>
     <row r="303">
       <c r="A303" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C303" s="0">
         <v>3.7108778307149888</v>
@@ -3761,10 +3581,10 @@
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C304" s="0">
         <v>2.2624464972609211</v>
@@ -3772,10 +3592,10 @@
     </row>
     <row r="305">
       <c r="A305" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C305" s="0">
         <v>2.3195134975794525</v>
@@ -3783,10 +3603,10 @@
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C306" s="0">
         <v>6.5104379032322219</v>
@@ -3794,10 +3614,10 @@
     </row>
     <row r="307">
       <c r="A307" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C307" s="0">
         <v>4.7419077273469901</v>
@@ -3805,10 +3625,10 @@
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C308" s="0">
         <v>4.3533152149182035</v>
@@ -3816,10 +3636,10 @@
     </row>
     <row r="309">
       <c r="A309" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C309" s="0">
         <v>5.9900818665605264</v>
@@ -3827,10 +3647,10 @@
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C310" s="0">
         <v>3.3085405716693366</v>
@@ -3838,10 +3658,10 @@
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C311" s="0">
         <v>4.5043072797393799</v>
@@ -3849,10 +3669,10 @@
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C312" s="0">
         <v>4.3978682852233089</v>
@@ -3860,10 +3680,10 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C313" s="0">
         <v>5.7323453869322343</v>
@@ -3871,10 +3691,10 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C314" s="0">
         <v>6.143088403663385</v>
@@ -3882,10 +3702,10 @@
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C315" s="0">
         <v>7.4923034550619425</v>
@@ -3893,10 +3713,10 @@
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C316" s="0">
         <v>3.8704520021398801</v>
@@ -3904,10 +3724,10 @@
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C317" s="0">
         <v>5.818622843682892</v>
@@ -3915,10 +3735,10 @@
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C318" s="0">
         <v>7.8105854884118333</v>
@@ -3926,10 +3746,10 @@
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C319" s="0">
         <v>8.7276829478602131</v>
@@ -3937,10 +3757,10 @@
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C320" s="0">
         <v>10.022440569396743</v>
@@ -3948,10 +3768,10 @@
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C321" s="0">
         <v>9.2961762883073717</v>
@@ -3959,10 +3779,10 @@
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C322" s="0">
         <v>4.9661957167738615</v>
@@ -3970,10 +3790,10 @@
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C323" s="0">
         <v>1.8293456995587112</v>
@@ -3981,10 +3801,10 @@
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C324" s="0">
         <v>0.89600661087075495</v>
@@ -3992,10 +3812,10 @@
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C325" s="0">
         <v>3.8995917514168355</v>
@@ -4003,10 +3823,10 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C326" s="0">
         <v>3.7476727441804605</v>
@@ -4014,10 +3834,10 @@
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C327" s="0">
         <v>4.0301747784727544</v>
@@ -4025,10 +3845,10 @@
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C328" s="0">
         <v>1.5831217455371096</v>
@@ -4036,10 +3856,10 @@
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C329" s="0">
         <v>1.9265361734123478</v>
@@ -4047,10 +3867,10 @@
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C330" s="0">
         <v>1.9237177839742643</v>
@@ -4058,10 +3878,10 @@
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C331" s="0">
         <v>2.512971631398027</v>
@@ -4069,10 +3889,10 @@
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C332" s="0">
         <v>6.8882436934567606</v>
@@ -4080,10 +3900,10 @@
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C333" s="0">
         <v>6.9486075291827776</v>
@@ -4091,10 +3911,10 @@
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C334" s="0">
         <v>4.0085190834593041</v>
@@ -4102,10 +3922,10 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C335" s="0">
         <v>3.3982437435660562</v>
@@ -4113,10 +3933,10 @@
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C336" s="0">
         <v>6.2665251383431038</v>
@@ -4124,10 +3944,10 @@
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C337" s="0">
         <v>6.097348619069388</v>
@@ -4135,10 +3955,10 @@
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C338" s="0">
         <v>5.7297448675604361</v>
@@ -4146,10 +3966,10 @@
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C339" s="0">
         <v>2.2611048835627416</v>
@@ -4157,10 +3977,10 @@
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C340" s="0">
         <v>6.356491560021194</v>
@@ -4168,10 +3988,10 @@
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C341" s="0">
         <v>3.8044658715487616</v>
@@ -4179,10 +3999,10 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C342" s="0">
         <v>5.1892096816349538</v>
@@ -4190,10 +4010,10 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C343" s="0">
         <v>3.0564403324972638</v>
@@ -4201,10 +4021,10 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C344" s="0">
         <v>3.781978629267571</v>
@@ -4212,10 +4032,10 @@
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C345" s="0">
         <v>2.8730369154591475</v>
@@ -4223,10 +4043,10 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C346" s="0">
         <v>3.721733147013186</v>
@@ -4234,10 +4054,10 @@
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C347" s="0">
         <v>4.0256827019147865</v>
@@ -4245,10 +4065,10 @@
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C348" s="0">
         <v>4.0919021598257022</v>
@@ -4256,10 +4076,10 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C349" s="0">
         <v>4.5520898142251252</v>
@@ -4267,10 +4087,10 @@
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C350" s="0">
         <v>4.9359563967587485</v>
@@ -4278,10 +4098,10 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C351" s="0">
         <v>3.8612829540839555</v>
@@ -4289,10 +4109,10 @@
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C352" s="0">
         <v>6.2129725825235127</v>
@@ -4300,10 +4120,10 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C353" s="0">
         <v>2.8439163801131722</v>
@@ -4311,10 +4131,10 @@
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C354" s="0">
         <v>6.5703904726440339</v>
@@ -4322,10 +4142,10 @@
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C355" s="0">
         <v>5.001998120769529</v>
@@ -4333,10 +4153,10 @@
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C356" s="0">
         <v>3.1651392342668454</v>
@@ -4344,10 +4164,10 @@
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C357" s="0">
         <v>3.7114128353644742</v>
@@ -4355,10 +4175,10 @@
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C358" s="0">
         <v>3.4749051416234287</v>
@@ -4366,10 +4186,10 @@
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C359" s="0">
         <v>4.8860961677162242</v>
@@ -4377,10 +4197,10 @@
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C360" s="0">
         <v>2.9196540872444317</v>
@@ -4388,10 +4208,10 @@
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C361" s="0">
         <v>3.4632012128690954</v>
@@ -4399,10 +4219,10 @@
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C362" s="0">
         <v>3.9930367104348465</v>
@@ -4410,10 +4230,10 @@
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C363" s="0">
         <v>3.5999533554285965</v>
@@ -4421,10 +4241,10 @@
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C364" s="0">
         <v>4.1228466728635746</v>
@@ -4432,10 +4252,10 @@
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C365" s="0">
         <v>4.9328104931237977</v>
@@ -4443,10 +4263,10 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C366" s="0">
         <v>5.365743097488993</v>
@@ -4454,10 +4274,10 @@
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C367" s="0">
         <v>8.2987633051081211</v>
@@ -4465,10 +4285,10 @@
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C368" s="0">
         <v>5.9009986808319548</v>
@@ -4476,10 +4296,10 @@
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C369" s="0">
         <v>3.9365702032409899</v>
@@ -4487,10 +4307,10 @@
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C370" s="0">
         <v>3.0941610265205952</v>
@@ -4498,10 +4318,10 @@
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C371" s="0">
         <v>8.0179337112009446</v>
@@ -4509,10 +4329,10 @@
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C372" s="0">
         <v>9.3457512476345492</v>
@@ -4520,10 +4340,10 @@
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C373" s="0">
         <v>8.6252468442989549</v>
@@ -4531,10 +4351,10 @@
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C374" s="0">
         <v>7.6063742508618244</v>
@@ -4542,10 +4362,10 @@
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C375" s="0">
         <v>9.5001707707995582</v>
@@ -4553,10 +4373,10 @@
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C376" s="0">
         <v>8.4170206646346877</v>
@@ -4564,10 +4384,10 @@
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C377" s="0">
         <v>16.141705181434816</v>
@@ -4575,10 +4395,10 @@
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C378" s="0">
         <v>11.035558349478535</v>
@@ -4586,10 +4406,10 @@
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C379" s="0">
         <v>9.2735203727895943</v>
@@ -4597,10 +4417,10 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C380" s="0">
         <v>8.5711461541711707</v>
@@ -4608,10 +4428,10 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C381" s="0">
         <v>6.8441185211029083</v>
@@ -4619,10 +4439,10 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C382" s="0">
         <v>6.7118938383393747</v>
@@ -4630,10 +4450,10 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C383" s="0">
         <v>7.1170596079278505</v>
@@ -4641,10 +4461,10 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C384" s="0">
         <v>4.5201096792377164</v>
@@ -4652,10 +4472,10 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C385" s="0">
         <v>5.6740798307944225</v>
@@ -4663,10 +4483,10 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C386" s="0">
         <v>7.4072498013736148</v>
@@ -4674,10 +4494,10 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C387" s="0">
         <v>6.6382497019251296</v>
@@ -4685,10 +4505,10 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C388" s="0">
         <v>7.815955601417957</v>
@@ -4696,10 +4516,10 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C389" s="0">
         <v>8.1478473986270519</v>
@@ -4707,10 +4527,10 @@
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C390" s="0">
         <v>8.1299012765551577</v>
@@ -4718,10 +4538,10 @@
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C391" s="0">
         <v>6.8104967321942826</v>
@@ -4729,10 +4549,10 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C392" s="0">
         <v>6.5009293185981445</v>
@@ -4740,10 +4560,10 @@
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C393" s="0">
         <v>2.9291340994811175</v>
@@ -4751,10 +4571,10 @@
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C394" s="0">
         <v>7.1257913143687794</v>
@@ -4762,10 +4582,10 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C395" s="0">
         <v>8.1201476814409492</v>
@@ -4773,10 +4593,10 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C396" s="0">
         <v>10.19645821434163</v>
@@ -4784,10 +4604,10 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C397" s="0">
         <v>6.1415060305637441</v>
@@ -4795,10 +4615,10 @@
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C398" s="0">
         <v>6.0393443149758488</v>
@@ -4806,10 +4626,10 @@
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C399" s="0">
         <v>6.2896949822326986</v>
@@ -4817,10 +4637,10 @@
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C400" s="0">
         <v>4.6956650315482458</v>
@@ -4828,10 +4648,10 @@
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C401" s="0">
         <v>6.5551799549804075</v>
@@ -4839,10 +4659,10 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C402" s="0">
         <v>2.0854796303448553</v>
@@ -4850,10 +4670,10 @@
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C403" s="0">
         <v>3.3250049641042505</v>
@@ -4861,10 +4681,10 @@
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C404" s="0">
         <v>4.1745256145555079</v>
@@ -4872,10 +4692,10 @@
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C405" s="0">
         <v>4.9389828980944817</v>
@@ -4883,10 +4703,10 @@
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C406" s="0">
         <v>5.3703374263639576</v>
@@ -4894,10 +4714,10 @@
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C407" s="0">
         <v>7.1728668909694751</v>
@@ -4905,10 +4725,10 @@
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C408" s="0">
         <v>7.1077793689669431</v>
@@ -4916,10 +4736,10 @@
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C409" s="0">
         <v>2.1370887409914969</v>
@@ -4927,10 +4747,10 @@
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C410" s="0">
         <v>8.3562962268536722</v>
@@ -4938,10 +4758,10 @@
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C411" s="0">
         <v>6.0039614725335788</v>
@@ -4949,10 +4769,10 @@
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C412" s="0">
         <v>5.4220518062257055</v>
@@ -4960,10 +4780,10 @@
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C413" s="0">
         <v>5.3971806425572195</v>
@@ -4971,10 +4791,10 @@
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C414" s="0">
         <v>2.5756413214129452</v>
@@ -4982,10 +4802,10 @@
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C415" s="0">
         <v>1.8184022527730377</v>
@@ -4993,10 +4813,10 @@
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C416" s="0">
         <v>6.42219500647417</v>
@@ -5004,10 +4824,10 @@
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C417" s="0">
         <v>4.3180443774781461</v>
@@ -5015,10 +4835,10 @@
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C418" s="0">
         <v>3.924619072867233</v>
@@ -5026,10 +4846,10 @@
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C419" s="0">
         <v>1.5952589410687332</v>
@@ -5037,10 +4857,10 @@
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C420" s="0">
         <v>6.7979859884701197</v>
@@ -5048,10 +4868,10 @@
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C421" s="0">
         <v>7.4762583055336584</v>
@@ -5059,10 +4879,10 @@
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C422" s="0">
         <v>13.163396567037269</v>
@@ -5070,10 +4890,10 @@
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C423" s="0">
         <v>11.164927322410746</v>
@@ -5081,10 +4901,10 @@
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C424" s="0">
         <v>15.129116612978374</v>
@@ -5092,10 +4912,10 @@
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C425" s="0">
         <v>8.0320691583713799</v>
@@ -5103,10 +4923,10 @@
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C426" s="0">
         <v>11.717198796516998</v>
@@ -5114,10 +4934,10 @@
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C427" s="0">
         <v>15.464858620103737</v>
@@ -5125,10 +4945,10 @@
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C428" s="0">
         <v>19.599744191303333</v>
@@ -5136,10 +4956,10 @@
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C429" s="0">
         <v>4.5628306000118384</v>
@@ -5147,10 +4967,10 @@
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C430" s="0">
         <v>17.907241889621986</v>
@@ -5158,10 +4978,10 @@
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C431" s="0">
         <v>15.470818093401359</v>
@@ -5169,10 +4989,10 @@
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C432" s="0">
         <v>6.4736181424824224</v>
@@ -5180,10 +5000,10 @@
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C433" s="0">
         <v>5.9462231164038446</v>
@@ -5191,10 +5011,10 @@
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C434" s="0">
         <v>6.3963584161011866</v>
@@ -5202,10 +5022,10 @@
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C435" s="0">
         <v>5.2115945962136259</v>
@@ -5213,10 +5033,10 @@
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C436" s="0">
         <v>1.3948706557864299</v>
@@ -5224,10 +5044,10 @@
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C437" s="0">
         <v>4.38139860071262</v>
@@ -5235,10 +5055,10 @@
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C438" s="0">
         <v>1.6927319376330112</v>
@@ -5246,10 +5066,10 @@
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C439" s="0">
         <v>3.592284328099105</v>
@@ -5257,10 +5077,10 @@
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C440" s="0">
         <v>7.3415746480853574</v>
@@ -5268,10 +5088,10 @@
     </row>
     <row r="441">
       <c r="A441" s="0" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C441" s="0">
         <v>3.282119464897284</v>
@@ -5279,10 +5099,10 @@
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C442" s="0">
         <v>6.9689538329171485</v>
@@ -5290,10 +5110,10 @@
     </row>
     <row r="443">
       <c r="A443" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C443" s="0">
         <v>2.5460883249740438</v>
@@ -5301,10 +5121,10 @@
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C444" s="0">
         <v>2.9092612860045408</v>
@@ -5312,10 +5132,10 @@
     </row>
     <row r="445">
       <c r="A445" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C445" s="0">
         <v>3.155417433411122</v>
@@ -5323,10 +5143,10 @@
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C446" s="0">
         <v>2.9036147340651692</v>
@@ -5334,10 +5154,10 @@
     </row>
     <row r="447">
       <c r="A447" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C447" s="0">
         <v>3.7646453428606037</v>
@@ -5345,10 +5165,10 @@
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C448" s="0">
         <v>5.4529711453557308</v>
@@ -5356,10 +5176,10 @@
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C449" s="0">
         <v>4.0824418047418876</v>
@@ -5367,10 +5187,10 @@
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C450" s="0">
         <v>6.1153746095330064</v>
@@ -5378,10 +5198,10 @@
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C451" s="0">
         <v>3.4193722188003646</v>
@@ -5389,10 +5209,10 @@
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C452" s="0">
         <v>12.792324519946908</v>
@@ -5400,10 +5220,10 @@
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C453" s="0">
         <v>7.0729948602269506</v>
@@ -5411,10 +5231,10 @@
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C454" s="0">
         <v>6.9450947724649446</v>
@@ -5422,10 +5242,10 @@
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C455" s="0">
         <v>7.7143343815162986</v>
@@ -5433,10 +5253,10 @@
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C456" s="0">
         <v>11.334582040505342</v>
@@ -5444,10 +5264,10 @@
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C457" s="0">
         <v>8.7981134062871025</v>
@@ -5455,10 +5275,10 @@
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C458" s="0">
         <v>10.407590886392216</v>
@@ -5466,10 +5286,10 @@
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C459" s="0">
         <v>9.2237370496242583</v>
@@ -5477,10 +5297,10 @@
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C460" s="0">
         <v>2.7018784944845762</v>
@@ -5488,10 +5308,10 @@
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C461" s="0">
         <v>6.3011302526491919</v>
@@ -5499,10 +5319,10 @@
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C462" s="0">
         <v>4.4255562046299239</v>
@@ -5510,10 +5330,10 @@
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C463" s="0">
         <v>5.5362144166956231</v>
@@ -5521,10 +5341,10 @@
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C464" s="0">
         <v>4.4500650928632366</v>
@@ -5532,10 +5352,10 @@
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C465" s="0">
         <v>3.2784798626022225</v>
@@ -5543,10 +5363,10 @@
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C466" s="0">
         <v>5.7418475688866435</v>
@@ -5554,10 +5374,10 @@
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C467" s="0">
         <v>4.6556771535766703</v>
@@ -5565,10 +5385,10 @@
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C468" s="0">
         <v>6.936285840936522</v>
@@ -5576,10 +5396,10 @@
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C469" s="0">
         <v>5.1633573991315282</v>
@@ -5587,10 +5407,10 @@
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C470" s="0">
         <v>1.6938719417580212</v>
@@ -5598,10 +5418,10 @@
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C471" s="0">
         <v>9.0002854976690525</v>
@@ -5609,10 +5429,10 @@
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C472" s="0">
         <v>5.4866153522818637</v>
@@ -5620,10 +5440,10 @@
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C473" s="0">
         <v>4.6156517417111047</v>
@@ -5631,10 +5451,10 @@
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C474" s="0">
         <v>3.5719374028845592</v>
@@ -5642,10 +5462,10 @@
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C475" s="0">
         <v>2.8403016385560198</v>
@@ -5653,10 +5473,10 @@
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C476" s="0">
         <v>3.3482749019143574</v>
@@ -5664,10 +5484,10 @@
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C477" s="0">
         <v>2.3919045488769486</v>
@@ -5675,10 +5495,10 @@
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C478" s="0">
         <v>3.9498487647193317</v>
@@ -5686,10 +5506,10 @@
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C479" s="0">
         <v>2.2780262472827335</v>
@@ -5697,10 +5517,10 @@
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C480" s="0">
         <v>2.8305091972389249</v>
@@ -5708,10 +5528,10 @@
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C481" s="0">
         <v>3.7893734378876962</v>
@@ -5719,10 +5539,10 @@
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C482" s="0">
         <v>3.0945330552378727</v>
@@ -5730,10 +5550,10 @@
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C483" s="0">
         <v>1.0902971665098538</v>
@@ -5741,10 +5561,10 @@
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C484" s="0">
         <v>3.0924676450256823</v>
@@ -5752,10 +5572,10 @@
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C485" s="0">
         <v>4.3296160229837168</v>
@@ -5763,10 +5583,10 @@
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C486" s="0">
         <v>4.5300419388983499</v>
@@ -5774,10 +5594,10 @@
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C487" s="0">
         <v>4.5933292931083125</v>
@@ -5785,10 +5605,10 @@
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C488" s="0">
         <v>5.2733819024157427</v>
@@ -5796,10 +5616,10 @@
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C489" s="0">
         <v>6.0176695121732946</v>
@@ -5807,10 +5627,10 @@
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C490" s="0">
         <v>5.6123374894027291</v>
@@ -5818,10 +5638,10 @@
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C491" s="0">
         <v>7.4403711717003915</v>
@@ -5829,10 +5649,10 @@
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C492" s="0">
         <v>6.2978862759240162</v>
@@ -5840,10 +5660,10 @@
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C493" s="0">
         <v>5.8947391698492275</v>
@@ -5851,10 +5671,10 @@
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C494" s="0">
         <v>6.0821995589222162</v>
@@ -5862,10 +5682,10 @@
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C495" s="0">
         <v>6.7899922908978736</v>
@@ -5873,10 +5693,10 @@
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C496" s="0">
         <v>8.2292908787939147</v>
@@ -5884,10 +5704,10 @@
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C497" s="0">
         <v>10.967375533880254</v>
@@ -5895,10 +5715,10 @@
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C498" s="0">
         <v>7.6732697096444449</v>
@@ -5906,10 +5726,10 @@
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C499" s="0">
         <v>8.6436373222172413</v>
@@ -5917,10 +5737,10 @@
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C500" s="0">
         <v>6.7654247344705079</v>
@@ -5928,10 +5748,10 @@
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C501" s="0">
         <v>9.5147013998487715</v>
@@ -5939,10 +5759,10 @@
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C502" s="0">
         <v>1.6140092649788145</v>
@@ -5950,10 +5770,10 @@
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C503" s="0">
         <v>4.3045094192616942</v>
@@ -5961,10 +5781,10 @@
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C504" s="0">
         <v>2.6615666083489997</v>
@@ -5972,10 +5792,10 @@
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C505" s="0">
         <v>4.9702623317312167</v>
@@ -5983,10 +5803,10 @@
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C506" s="0">
         <v>1.4781384303811516</v>
@@ -5994,10 +5814,10 @@
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C507" s="0">
         <v>2.4256645826188525</v>
@@ -6005,10 +5825,10 @@
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C508" s="0">
         <v>6.2324141408685563</v>
@@ -6016,10 +5836,10 @@
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C509" s="0">
         <v>5.8803923397823405</v>
@@ -6027,10 +5847,10 @@
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C510" s="0">
         <v>5.9292798408744627</v>
@@ -6038,10 +5858,10 @@
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C511" s="0">
         <v>6.5153162513558156</v>
@@ -6049,10 +5869,10 @@
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C512" s="0">
         <v>4.3618050020384622</v>
@@ -6060,10 +5880,10 @@
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C513" s="0">
         <v>6.7495832119487185</v>
@@ -6071,10 +5891,10 @@
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C514" s="0">
         <v>3.896069192901126</v>
@@ -6082,10 +5902,10 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C515" s="0">
         <v>3.2432553422268771</v>
@@ -6093,10 +5913,10 @@
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C516" s="0">
         <v>1.8630674727363175</v>
@@ -6104,10 +5924,10 @@
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C517" s="0">
         <v>3.3906369635016826</v>
@@ -6115,10 +5935,10 @@
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C518" s="0">
         <v>3.3582718714033395</v>
@@ -6126,10 +5946,10 @@
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C519" s="0">
         <v>2.4117349572465878</v>
@@ -6137,10 +5957,10 @@
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C520" s="0">
         <v>4.2358901116097947</v>
@@ -6148,10 +5968,10 @@
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C521" s="0">
         <v>3.9683825538929649</v>
@@ -6159,10 +5979,10 @@
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C522" s="0">
         <v>4.538461145167016</v>
@@ -6170,10 +5990,10 @@
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C523" s="0">
         <v>2.6527808035791351</v>
@@ -6181,10 +6001,10 @@
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C524" s="0">
         <v>2.9862350622612897</v>
@@ -6192,10 +6012,10 @@
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C525" s="0">
         <v>3.9210069670810053</v>
@@ -6203,10 +6023,10 @@
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C526" s="0">
         <v>5.0429549008744123</v>
@@ -6214,10 +6034,10 @@
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C527" s="0">
         <v>1.74229378975847</v>
@@ -6225,10 +6045,10 @@
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C528" s="0">
         <v>3.5872529860012494</v>
@@ -6236,10 +6056,10 @@
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C529" s="0">
         <v>3.2643540944821847</v>
@@ -6247,10 +6067,10 @@
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C530" s="0">
         <v>5.1059667805579014</v>
@@ -6258,10 +6078,10 @@
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C531" s="0">
         <v>3.95363016886723</v>
@@ -6269,10 +6089,10 @@
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C532" s="0">
         <v>7.2042150778974472</v>
@@ -6280,10 +6100,10 @@
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C533" s="0">
         <v>4.02403630485012</v>
@@ -6291,10 +6111,10 @@
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C534" s="0">
         <v>4.1941162716281903</v>
@@ -6302,10 +6122,10 @@
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C535" s="0">
         <v>3.118386552254611</v>
@@ -6313,10 +6133,10 @@
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C536" s="0">
         <v>4.0170418150115248</v>
@@ -6324,10 +6144,10 @@
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C537" s="0">
         <v>7.5816866507262581</v>
@@ -6335,10 +6155,10 @@
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C538" s="0">
         <v>5.3153414740716833</v>
@@ -6346,10 +6166,10 @@
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C539" s="0">
         <v>3.5391281388268587</v>
@@ -6357,10 +6177,10 @@
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C540" s="0">
         <v>3.6055992259408294</v>
@@ -6368,10 +6188,10 @@
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C541" s="0">
         <v>3.1800409731311126</v>

--- a/HME_R_Analysis/HMEData-for-R/Index Normal Force.xlsx
+++ b/HME_R_Analysis/HMEData-for-R/Index Normal Force.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="63">
   <si>
     <t>SubjectNum</t>
   </si>
@@ -194,6 +194,15 @@
   <si>
     <t>SubjectData</t>
   </si>
+  <si>
+    <t>SubjectNum</t>
+  </si>
+  <si>
+    <t>Mappings</t>
+  </si>
+  <si>
+    <t>SubjectData</t>
+  </si>
 </sst>
 </file>
 
@@ -242,5956 +251,5956 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.16796875" customWidth="true"/>
-    <col min="2" max="2" width="9.53125" customWidth="true"/>
+    <col min="2" max="2" width="9.34765625" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>56</v>
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1</v>
       </c>
       <c r="C2" s="0">
         <v>3.5890772376854834</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>56</v>
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1</v>
       </c>
       <c r="C3" s="0">
         <v>3.7850026824420779</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>56</v>
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1</v>
       </c>
       <c r="C4" s="0">
         <v>3.3458012773808106</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>56</v>
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1</v>
       </c>
       <c r="C5" s="0">
         <v>3.078321857625967</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>56</v>
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1</v>
       </c>
       <c r="C6" s="0">
         <v>1.7029397782202251</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>56</v>
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1</v>
       </c>
       <c r="C7" s="0">
         <v>3.5097804822478</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>56</v>
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1</v>
       </c>
       <c r="C8" s="0">
         <v>4.4386317941494298</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>56</v>
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>1</v>
       </c>
       <c r="C9" s="0">
         <v>3.5773230818476622</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>56</v>
+      <c r="A10" s="0">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
       </c>
       <c r="C10" s="0">
         <v>1.8137315198427337</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>56</v>
+      <c r="A11" s="0">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1</v>
       </c>
       <c r="C11" s="0">
         <v>4.5409004611223969</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="0">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>56</v>
+      <c r="B12" s="0">
+        <v>1</v>
       </c>
       <c r="C12" s="0">
         <v>7.2110907627994667</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="0">
         <v>2</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>56</v>
+      <c r="B13" s="0">
+        <v>1</v>
       </c>
       <c r="C13" s="0">
         <v>4.8299316674268651</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="0">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>56</v>
+      <c r="B14" s="0">
+        <v>1</v>
       </c>
       <c r="C14" s="0">
         <v>2.854735644436635</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="0">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>56</v>
+      <c r="B15" s="0">
+        <v>1</v>
       </c>
       <c r="C15" s="0">
         <v>3.6482542784553615</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="0">
         <v>2</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>56</v>
+      <c r="B16" s="0">
+        <v>1</v>
       </c>
       <c r="C16" s="0">
         <v>3.7177384972029834</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="0">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>56</v>
+      <c r="B17" s="0">
+        <v>1</v>
       </c>
       <c r="C17" s="0">
         <v>2.9518076221114988</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="0">
         <v>2</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>56</v>
+      <c r="B18" s="0">
+        <v>1</v>
       </c>
       <c r="C18" s="0">
         <v>4.5366812180066161</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="0">
         <v>2</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>56</v>
+      <c r="B19" s="0">
+        <v>1</v>
       </c>
       <c r="C19" s="0">
         <v>4.4038866534845198</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="0">
         <v>2</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>56</v>
+      <c r="B20" s="0">
+        <v>1</v>
       </c>
       <c r="C20" s="0">
         <v>4.0369977891602966</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="0">
         <v>2</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>56</v>
+      <c r="B21" s="0">
+        <v>1</v>
       </c>
       <c r="C21" s="0">
         <v>6.6811250917905793</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>56</v>
+      <c r="A22" s="0">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1</v>
       </c>
       <c r="C22" s="0">
         <v>3.9811280349079552</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>56</v>
+      <c r="A23" s="0">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0">
+        <v>1</v>
       </c>
       <c r="C23" s="0">
         <v>1.3349458869878317</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>56</v>
+      <c r="A24" s="0">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0">
+        <v>1</v>
       </c>
       <c r="C24" s="0">
         <v>5.0709032829008214</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>56</v>
+      <c r="A25" s="0">
+        <v>3</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1</v>
       </c>
       <c r="C25" s="0">
         <v>6.8868101497703575</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>56</v>
+      <c r="A26" s="0">
+        <v>3</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1</v>
       </c>
       <c r="C26" s="0">
         <v>4.7901192122944387</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>56</v>
+      <c r="A27" s="0">
+        <v>3</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1</v>
       </c>
       <c r="C27" s="0">
         <v>6.212139176073455</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>56</v>
+      <c r="A28" s="0">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1</v>
       </c>
       <c r="C28" s="0">
         <v>5.0726052146456535</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>56</v>
+      <c r="A29" s="0">
+        <v>3</v>
+      </c>
+      <c r="B29" s="0">
+        <v>1</v>
       </c>
       <c r="C29" s="0">
         <v>5.5935534091477885</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>56</v>
+      <c r="A30" s="0">
+        <v>3</v>
+      </c>
+      <c r="B30" s="0">
+        <v>1</v>
       </c>
       <c r="C30" s="0">
         <v>6.4210955809766208</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>56</v>
+      <c r="A31" s="0">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1</v>
       </c>
       <c r="C31" s="0">
         <v>5.3251439665877562</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="0">
         <v>4</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>56</v>
+      <c r="B32" s="0">
+        <v>1</v>
       </c>
       <c r="C32" s="0">
         <v>4.9392117998902645</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="0">
         <v>4</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>56</v>
+      <c r="B33" s="0">
+        <v>1</v>
       </c>
       <c r="C33" s="0">
         <v>5.6966971042790409</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="0">
         <v>4</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>56</v>
+      <c r="B34" s="0">
+        <v>1</v>
       </c>
       <c r="C34" s="0">
         <v>7.3503995540162093</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="0">
         <v>4</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>56</v>
+      <c r="B35" s="0">
+        <v>1</v>
       </c>
       <c r="C35" s="0">
         <v>6.0790375792320432</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="0">
         <v>4</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>56</v>
+      <c r="B36" s="0">
+        <v>1</v>
       </c>
       <c r="C36" s="0">
         <v>8.3692142197705017</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="0">
         <v>4</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>56</v>
+      <c r="B37" s="0">
+        <v>1</v>
       </c>
       <c r="C37" s="0">
         <v>5.3801421957652629</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="0">
         <v>4</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>56</v>
+      <c r="B38" s="0">
+        <v>1</v>
       </c>
       <c r="C38" s="0">
         <v>8.3306136434732885</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="0">
         <v>4</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>56</v>
+      <c r="B39" s="0">
+        <v>1</v>
       </c>
       <c r="C39" s="0">
         <v>6.4861633961825182</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="0">
         <v>4</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>56</v>
+      <c r="B40" s="0">
+        <v>1</v>
       </c>
       <c r="C40" s="0">
         <v>7.7403350064203957</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="0">
         <v>4</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>56</v>
+      <c r="B41" s="0">
+        <v>1</v>
       </c>
       <c r="C41" s="0">
         <v>5.6840303852466771</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>56</v>
+      <c r="A42" s="0">
+        <v>5</v>
+      </c>
+      <c r="B42" s="0">
+        <v>1</v>
       </c>
       <c r="C42" s="0">
         <v>6.9113124695898227</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>56</v>
+      <c r="A43" s="0">
+        <v>5</v>
+      </c>
+      <c r="B43" s="0">
+        <v>1</v>
       </c>
       <c r="C43" s="0">
         <v>2.5732539218663262</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>56</v>
+      <c r="A44" s="0">
+        <v>5</v>
+      </c>
+      <c r="B44" s="0">
+        <v>1</v>
       </c>
       <c r="C44" s="0">
         <v>3.3242582572950945</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>56</v>
+      <c r="A45" s="0">
+        <v>5</v>
+      </c>
+      <c r="B45" s="0">
+        <v>1</v>
       </c>
       <c r="C45" s="0">
         <v>9.5758123575586112</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>56</v>
+      <c r="A46" s="0">
+        <v>5</v>
+      </c>
+      <c r="B46" s="0">
+        <v>1</v>
       </c>
       <c r="C46" s="0">
         <v>2.6002141390883402</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>56</v>
+      <c r="A47" s="0">
+        <v>5</v>
+      </c>
+      <c r="B47" s="0">
+        <v>1</v>
       </c>
       <c r="C47" s="0">
         <v>5.5705032334760745</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>56</v>
+      <c r="A48" s="0">
+        <v>5</v>
+      </c>
+      <c r="B48" s="0">
+        <v>1</v>
       </c>
       <c r="C48" s="0">
         <v>5.0640470914251896</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>56</v>
+      <c r="A49" s="0">
+        <v>5</v>
+      </c>
+      <c r="B49" s="0">
+        <v>1</v>
       </c>
       <c r="C49" s="0">
         <v>3.9278488407516621</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>56</v>
+      <c r="A50" s="0">
+        <v>5</v>
+      </c>
+      <c r="B50" s="0">
+        <v>1</v>
       </c>
       <c r="C50" s="0">
         <v>2.520400754429942</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>56</v>
+      <c r="A51" s="0">
+        <v>5</v>
+      </c>
+      <c r="B51" s="0">
+        <v>1</v>
       </c>
       <c r="C51" s="0">
         <v>2.9234863910863713</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="0">
         <v>6</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>56</v>
+      <c r="B52" s="0">
+        <v>1</v>
       </c>
       <c r="C52" s="0">
         <v>6.1955506937374878</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="0">
         <v>6</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>56</v>
+      <c r="B53" s="0">
+        <v>1</v>
       </c>
       <c r="C53" s="0">
         <v>5.6154618341949076</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="0">
         <v>6</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>56</v>
+      <c r="B54" s="0">
+        <v>1</v>
       </c>
       <c r="C54" s="0">
         <v>7.3422102576209562</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="0">
         <v>6</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>56</v>
+      <c r="B55" s="0">
+        <v>1</v>
       </c>
       <c r="C55" s="0">
         <v>3.883187565402709</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="0">
         <v>6</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>56</v>
+      <c r="B56" s="0">
+        <v>1</v>
       </c>
       <c r="C56" s="0">
         <v>6.2386496570754391</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="0">
         <v>6</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>56</v>
+      <c r="B57" s="0">
+        <v>1</v>
       </c>
       <c r="C57" s="0">
         <v>6.4802698880319998</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="0">
         <v>6</v>
       </c>
-      <c r="B58" s="0" t="s">
-        <v>56</v>
+      <c r="B58" s="0">
+        <v>1</v>
       </c>
       <c r="C58" s="0">
         <v>4.4248487172874649</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="0">
         <v>6</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>56</v>
+      <c r="B59" s="0">
+        <v>1</v>
       </c>
       <c r="C59" s="0">
         <v>6.1331528721831097</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="0">
         <v>6</v>
       </c>
-      <c r="B60" s="0" t="s">
-        <v>56</v>
+      <c r="B60" s="0">
+        <v>1</v>
       </c>
       <c r="C60" s="0">
         <v>5.7750220614963226</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="0">
         <v>6</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>56</v>
+      <c r="B61" s="0">
+        <v>1</v>
       </c>
       <c r="C61" s="0">
         <v>4.9179571773511563</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="0">
         <v>7</v>
       </c>
-      <c r="B62" s="0" t="s">
-        <v>56</v>
+      <c r="B62" s="0">
+        <v>1</v>
       </c>
       <c r="C62" s="0">
         <v>3.9775747586754324</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="0">
         <v>7</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>56</v>
+      <c r="B63" s="0">
+        <v>1</v>
       </c>
       <c r="C63" s="0">
         <v>2.9169058925779909</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="0">
         <v>7</v>
       </c>
-      <c r="B64" s="0" t="s">
-        <v>56</v>
+      <c r="B64" s="0">
+        <v>1</v>
       </c>
       <c r="C64" s="0">
         <v>4.3695111627171981</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="0">
         <v>7</v>
       </c>
-      <c r="B65" s="0" t="s">
-        <v>56</v>
+      <c r="B65" s="0">
+        <v>1</v>
       </c>
       <c r="C65" s="0">
         <v>5.6891452360260164</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="0">
         <v>7</v>
       </c>
-      <c r="B66" s="0" t="s">
-        <v>56</v>
+      <c r="B66" s="0">
+        <v>1</v>
       </c>
       <c r="C66" s="0">
         <v>3.0525676523864962</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="0">
         <v>7</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>56</v>
+      <c r="B67" s="0">
+        <v>1</v>
       </c>
       <c r="C67" s="0">
         <v>3.6269792505782568</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="0">
         <v>7</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>56</v>
+      <c r="B68" s="0">
+        <v>1</v>
       </c>
       <c r="C68" s="0">
         <v>4.1202327029602879</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="0">
         <v>7</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>56</v>
+      <c r="B69" s="0">
+        <v>1</v>
       </c>
       <c r="C69" s="0">
         <v>5.174397175595197</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="0">
         <v>7</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>56</v>
+      <c r="B70" s="0">
+        <v>1</v>
       </c>
       <c r="C70" s="0">
         <v>7.3270513310318632</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="0">
         <v>7</v>
       </c>
-      <c r="B71" s="0" t="s">
-        <v>56</v>
+      <c r="B71" s="0">
+        <v>1</v>
       </c>
       <c r="C71" s="0">
         <v>2.7616260030031987</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="0">
         <v>8</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>56</v>
+      <c r="B72" s="0">
+        <v>1</v>
       </c>
       <c r="C72" s="0">
         <v>4.8521568719396742</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="0">
         <v>8</v>
       </c>
-      <c r="B73" s="0" t="s">
-        <v>56</v>
+      <c r="B73" s="0">
+        <v>1</v>
       </c>
       <c r="C73" s="0">
         <v>6.1835278615174269</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="0">
         <v>8</v>
       </c>
-      <c r="B74" s="0" t="s">
-        <v>56</v>
+      <c r="B74" s="0">
+        <v>1</v>
       </c>
       <c r="C74" s="0">
         <v>4.7387112291839797</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="0">
         <v>8</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>56</v>
+      <c r="B75" s="0">
+        <v>1</v>
       </c>
       <c r="C75" s="0">
         <v>4.473012287540338</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="0">
         <v>8</v>
       </c>
-      <c r="B76" s="0" t="s">
-        <v>56</v>
+      <c r="B76" s="0">
+        <v>1</v>
       </c>
       <c r="C76" s="0">
         <v>1.798625610302242</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="0">
         <v>8</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>56</v>
+      <c r="B77" s="0">
+        <v>1</v>
       </c>
       <c r="C77" s="0">
         <v>7.4913296127833036</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="0">
         <v>8</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>56</v>
+      <c r="B78" s="0">
+        <v>1</v>
       </c>
       <c r="C78" s="0">
         <v>5.1005209868780108</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="0">
         <v>8</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>56</v>
+      <c r="B79" s="0">
+        <v>1</v>
       </c>
       <c r="C79" s="0">
         <v>4.6818245370385316</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="0">
         <v>8</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>56</v>
+      <c r="B80" s="0">
+        <v>1</v>
       </c>
       <c r="C80" s="0">
         <v>6.9571343749608943</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="0">
         <v>8</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>56</v>
+      <c r="B81" s="0">
+        <v>1</v>
       </c>
       <c r="C81" s="0">
         <v>9.032617403996138</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="0">
         <v>9</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>56</v>
+      <c r="B82" s="0">
+        <v>1</v>
       </c>
       <c r="C82" s="0">
         <v>5.6960250001647381</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="0">
         <v>9</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>56</v>
+      <c r="B83" s="0">
+        <v>1</v>
       </c>
       <c r="C83" s="0">
         <v>3.8201497826969053</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="0">
         <v>9</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>56</v>
+      <c r="B84" s="0">
+        <v>1</v>
       </c>
       <c r="C84" s="0">
         <v>3.8019173291009092</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="0">
         <v>9</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>56</v>
+      <c r="B85" s="0">
+        <v>1</v>
       </c>
       <c r="C85" s="0">
         <v>2.63572673324177</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="0">
         <v>9</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>56</v>
+      <c r="B86" s="0">
+        <v>1</v>
       </c>
       <c r="C86" s="0">
         <v>4.9241965326221866</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="0">
         <v>9</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>56</v>
+      <c r="B87" s="0">
+        <v>1</v>
       </c>
       <c r="C87" s="0">
         <v>3.9064742698536672</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="0">
         <v>9</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>56</v>
+      <c r="B88" s="0">
+        <v>1</v>
       </c>
       <c r="C88" s="0">
         <v>4.3600127030343687</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="0">
         <v>9</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>56</v>
+      <c r="B89" s="0">
+        <v>1</v>
       </c>
       <c r="C89" s="0">
         <v>4.6883951367642087</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="0">
         <v>9</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>56</v>
+      <c r="B90" s="0">
+        <v>1</v>
       </c>
       <c r="C90" s="0">
         <v>3.3795031077508773</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="0">
         <v>9</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>56</v>
+      <c r="B91" s="0">
+        <v>1</v>
       </c>
       <c r="C91" s="0">
         <v>3.2289858764158357</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="0">
         <v>10</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>56</v>
+      <c r="B92" s="0">
+        <v>1</v>
       </c>
       <c r="C92" s="0">
         <v>4.6536211910038316</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="0">
         <v>10</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>56</v>
+      <c r="B93" s="0">
+        <v>1</v>
       </c>
       <c r="C93" s="0">
         <v>10.597162315094002</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="0">
         <v>10</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>56</v>
+      <c r="B94" s="0">
+        <v>1</v>
       </c>
       <c r="C94" s="0">
         <v>10.308565079955164</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="0">
         <v>10</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>56</v>
+      <c r="B95" s="0">
+        <v>1</v>
       </c>
       <c r="C95" s="0">
         <v>7.668619768428834</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="0">
         <v>10</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>56</v>
+      <c r="B96" s="0">
+        <v>1</v>
       </c>
       <c r="C96" s="0">
         <v>6.9970657849171314</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="0">
         <v>10</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>56</v>
+      <c r="B97" s="0">
+        <v>1</v>
       </c>
       <c r="C97" s="0">
         <v>5.8544251191592451</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="0">
         <v>10</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>56</v>
+      <c r="B98" s="0">
+        <v>1</v>
       </c>
       <c r="C98" s="0">
         <v>5.0529909151755623</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="0">
         <v>10</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>56</v>
+      <c r="B99" s="0">
+        <v>1</v>
       </c>
       <c r="C99" s="0">
         <v>7.4364522338248626</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="0">
         <v>10</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>56</v>
+      <c r="B100" s="0">
+        <v>1</v>
       </c>
       <c r="C100" s="0">
         <v>7.5376628661434042</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="0">
         <v>10</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>56</v>
+      <c r="B101" s="0">
+        <v>1</v>
       </c>
       <c r="C101" s="0">
         <v>5.5564954310485755</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="0">
         <v>11</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>56</v>
+      <c r="B102" s="0">
+        <v>1</v>
       </c>
       <c r="C102" s="0">
         <v>5.6845285955320914</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="0">
         <v>11</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>56</v>
+      <c r="B103" s="0">
+        <v>1</v>
       </c>
       <c r="C103" s="0">
         <v>3.9114329528286871</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="0">
         <v>11</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>56</v>
+      <c r="B104" s="0">
+        <v>1</v>
       </c>
       <c r="C104" s="0">
         <v>5.4393956337268179</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="0">
         <v>11</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>56</v>
+      <c r="B105" s="0">
+        <v>1</v>
       </c>
       <c r="C105" s="0">
         <v>1.4090259127317299</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="0">
         <v>11</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>56</v>
+      <c r="B106" s="0">
+        <v>1</v>
       </c>
       <c r="C106" s="0">
         <v>2.8728456679346119</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="0">
         <v>11</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>56</v>
+      <c r="B107" s="0">
+        <v>1</v>
       </c>
       <c r="C107" s="0">
         <v>2.33391661327141</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="0">
         <v>11</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>56</v>
+      <c r="B108" s="0">
+        <v>1</v>
       </c>
       <c r="C108" s="0">
         <v>5.6662872217943976</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="0">
         <v>11</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>56</v>
+      <c r="B109" s="0">
+        <v>1</v>
       </c>
       <c r="C109" s="0">
         <v>3.1758180834066443</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="0">
         <v>11</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>56</v>
+      <c r="B110" s="0">
+        <v>1</v>
       </c>
       <c r="C110" s="0">
         <v>6.121697198190013</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="0">
         <v>11</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>56</v>
+      <c r="B111" s="0">
+        <v>1</v>
       </c>
       <c r="C111" s="0">
         <v>6.2439391503533477</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="0">
         <v>12</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>56</v>
+      <c r="B112" s="0">
+        <v>1</v>
       </c>
       <c r="C112" s="0">
         <v>3.3284850569383395</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="0">
         <v>12</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>56</v>
+      <c r="B113" s="0">
+        <v>1</v>
       </c>
       <c r="C113" s="0">
         <v>3.9909634112847123</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="0">
         <v>12</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>56</v>
+      <c r="B114" s="0">
+        <v>1</v>
       </c>
       <c r="C114" s="0">
         <v>2.9274547986111936</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="0">
         <v>12</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>56</v>
+      <c r="B115" s="0">
+        <v>1</v>
       </c>
       <c r="C115" s="0">
         <v>3.9472582717092957</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="0">
         <v>12</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>56</v>
+      <c r="B116" s="0">
+        <v>1</v>
       </c>
       <c r="C116" s="0">
         <v>3.2049434602692282</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="0">
         <v>12</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>56</v>
+      <c r="B117" s="0">
+        <v>1</v>
       </c>
       <c r="C117" s="0">
         <v>3.9700688996839109</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="0">
         <v>12</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>56</v>
+      <c r="B118" s="0">
+        <v>1</v>
       </c>
       <c r="C118" s="0">
         <v>1.3523949880417667</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="0">
         <v>12</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>56</v>
+      <c r="B119" s="0">
+        <v>1</v>
       </c>
       <c r="C119" s="0">
         <v>3.9600405553196856</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="0">
         <v>12</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>56</v>
+      <c r="B120" s="0">
+        <v>1</v>
       </c>
       <c r="C120" s="0">
         <v>4.2376322786564797</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="0">
         <v>12</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>56</v>
+      <c r="B121" s="0">
+        <v>1</v>
       </c>
       <c r="C121" s="0">
         <v>3.068473570241145</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="0">
         <v>13</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>56</v>
+      <c r="B122" s="0">
+        <v>1</v>
       </c>
       <c r="C122" s="0">
         <v>1.4858348842173719</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="0">
         <v>13</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>56</v>
+      <c r="B123" s="0">
+        <v>1</v>
       </c>
       <c r="C123" s="0">
         <v>5.4806202394044314</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="0">
         <v>13</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>56</v>
+      <c r="B124" s="0">
+        <v>1</v>
       </c>
       <c r="C124" s="0">
         <v>4.1357120403728018</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="0">
         <v>13</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>56</v>
+      <c r="B125" s="0">
+        <v>1</v>
       </c>
       <c r="C125" s="0">
         <v>3.3391435174012796</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="0">
         <v>13</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>56</v>
+      <c r="B126" s="0">
+        <v>1</v>
       </c>
       <c r="C126" s="0">
         <v>1.298804271378678</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="0">
         <v>13</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>56</v>
+      <c r="B127" s="0">
+        <v>1</v>
       </c>
       <c r="C127" s="0">
         <v>2.7496776202261994</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="0">
         <v>13</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>56</v>
+      <c r="B128" s="0">
+        <v>1</v>
       </c>
       <c r="C128" s="0">
         <v>4.3112883982459431</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="0">
         <v>13</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>56</v>
+      <c r="B129" s="0">
+        <v>1</v>
       </c>
       <c r="C129" s="0">
         <v>1.0605133857987961</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="0">
         <v>13</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>56</v>
+      <c r="B130" s="0">
+        <v>1</v>
       </c>
       <c r="C130" s="0">
         <v>1.2733165850261159</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="0">
         <v>13</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>56</v>
+      <c r="B131" s="0">
+        <v>1</v>
       </c>
       <c r="C131" s="0">
         <v>4.1811245682241687</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="0">
         <v>14</v>
       </c>
-      <c r="B132" s="0" t="s">
-        <v>56</v>
+      <c r="B132" s="0">
+        <v>1</v>
       </c>
       <c r="C132" s="0">
         <v>10.035916322507235</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="0">
         <v>14</v>
       </c>
-      <c r="B133" s="0" t="s">
-        <v>56</v>
+      <c r="B133" s="0">
+        <v>1</v>
       </c>
       <c r="C133" s="0">
         <v>9.1114665815947724</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="0">
         <v>14</v>
       </c>
-      <c r="B134" s="0" t="s">
-        <v>56</v>
+      <c r="B134" s="0">
+        <v>1</v>
       </c>
       <c r="C134" s="0">
         <v>7.29883691196813</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="0">
         <v>14</v>
       </c>
-      <c r="B135" s="0" t="s">
-        <v>56</v>
+      <c r="B135" s="0">
+        <v>1</v>
       </c>
       <c r="C135" s="0">
         <v>8.7429773212433748</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="0">
         <v>14</v>
       </c>
-      <c r="B136" s="0" t="s">
-        <v>56</v>
+      <c r="B136" s="0">
+        <v>1</v>
       </c>
       <c r="C136" s="0">
         <v>6.1673819082992702</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="0">
         <v>14</v>
       </c>
-      <c r="B137" s="0" t="s">
-        <v>56</v>
+      <c r="B137" s="0">
+        <v>1</v>
       </c>
       <c r="C137" s="0">
         <v>7.0689669122067587</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="0">
         <v>14</v>
       </c>
-      <c r="B138" s="0" t="s">
-        <v>56</v>
+      <c r="B138" s="0">
+        <v>1</v>
       </c>
       <c r="C138" s="0">
         <v>11.535396991465776</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="0">
         <v>14</v>
       </c>
-      <c r="B139" s="0" t="s">
-        <v>56</v>
+      <c r="B139" s="0">
+        <v>1</v>
       </c>
       <c r="C139" s="0">
         <v>9.8810896104880879</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="0">
         <v>14</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>56</v>
+      <c r="B140" s="0">
+        <v>1</v>
       </c>
       <c r="C140" s="0">
         <v>9.3193495250089828</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="0">
         <v>14</v>
       </c>
-      <c r="B141" s="0" t="s">
-        <v>56</v>
+      <c r="B141" s="0">
+        <v>1</v>
       </c>
       <c r="C141" s="0">
         <v>9.7673802815418167</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="0">
         <v>15</v>
       </c>
-      <c r="B142" s="0" t="s">
-        <v>56</v>
+      <c r="B142" s="0">
+        <v>1</v>
       </c>
       <c r="C142" s="0">
         <v>6.1620246603860735</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="0">
         <v>15</v>
       </c>
-      <c r="B143" s="0" t="s">
-        <v>56</v>
+      <c r="B143" s="0">
+        <v>1</v>
       </c>
       <c r="C143" s="0">
         <v>1.4110160102242184</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="0">
         <v>15</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>56</v>
+      <c r="B144" s="0">
+        <v>1</v>
       </c>
       <c r="C144" s="0">
         <v>3.1463987588512867</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="0">
         <v>15</v>
       </c>
-      <c r="B145" s="0" t="s">
-        <v>56</v>
+      <c r="B145" s="0">
+        <v>1</v>
       </c>
       <c r="C145" s="0">
         <v>2.1252750017640434</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="0">
         <v>15</v>
       </c>
-      <c r="B146" s="0" t="s">
-        <v>56</v>
+      <c r="B146" s="0">
+        <v>1</v>
       </c>
       <c r="C146" s="0">
         <v>1.5258696199753536</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="0">
         <v>15</v>
       </c>
-      <c r="B147" s="0" t="s">
-        <v>56</v>
+      <c r="B147" s="0">
+        <v>1</v>
       </c>
       <c r="C147" s="0">
         <v>3.2098061560296633</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="0">
         <v>15</v>
       </c>
-      <c r="B148" s="0" t="s">
-        <v>56</v>
+      <c r="B148" s="0">
+        <v>1</v>
       </c>
       <c r="C148" s="0">
         <v>2.6783683149117525</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="0">
         <v>15</v>
       </c>
-      <c r="B149" s="0" t="s">
-        <v>56</v>
+      <c r="B149" s="0">
+        <v>1</v>
       </c>
       <c r="C149" s="0">
         <v>2.7715715112839603</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="0">
         <v>15</v>
       </c>
-      <c r="B150" s="0" t="s">
-        <v>56</v>
+      <c r="B150" s="0">
+        <v>1</v>
       </c>
       <c r="C150" s="0">
         <v>3.1321686197507543</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="0">
         <v>15</v>
       </c>
-      <c r="B151" s="0" t="s">
-        <v>56</v>
+      <c r="B151" s="0">
+        <v>1</v>
       </c>
       <c r="C151" s="0">
         <v>3.0984923387388403</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="0">
         <v>16</v>
       </c>
-      <c r="B152" s="0" t="s">
-        <v>56</v>
+      <c r="B152" s="0">
+        <v>1</v>
       </c>
       <c r="C152" s="0">
         <v>7.2385656423065381</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="0">
         <v>16</v>
       </c>
-      <c r="B153" s="0" t="s">
-        <v>56</v>
+      <c r="B153" s="0">
+        <v>1</v>
       </c>
       <c r="C153" s="0">
         <v>8.2947257554126264</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="0">
         <v>16</v>
       </c>
-      <c r="B154" s="0" t="s">
-        <v>56</v>
+      <c r="B154" s="0">
+        <v>1</v>
       </c>
       <c r="C154" s="0">
         <v>5.504336403619055</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="0">
         <v>16</v>
       </c>
-      <c r="B155" s="0" t="s">
-        <v>56</v>
+      <c r="B155" s="0">
+        <v>1</v>
       </c>
       <c r="C155" s="0">
         <v>7.4219601756030791</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="0">
         <v>16</v>
       </c>
-      <c r="B156" s="0" t="s">
-        <v>56</v>
+      <c r="B156" s="0">
+        <v>1</v>
       </c>
       <c r="C156" s="0">
         <v>5.4884979975692945</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="0">
         <v>16</v>
       </c>
-      <c r="B157" s="0" t="s">
-        <v>56</v>
+      <c r="B157" s="0">
+        <v>1</v>
       </c>
       <c r="C157" s="0">
         <v>8.3041385093831863</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="0">
         <v>16</v>
       </c>
-      <c r="B158" s="0" t="s">
-        <v>56</v>
+      <c r="B158" s="0">
+        <v>1</v>
       </c>
       <c r="C158" s="0">
         <v>7.8835281860443827</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="0">
         <v>16</v>
       </c>
-      <c r="B159" s="0" t="s">
-        <v>56</v>
+      <c r="B159" s="0">
+        <v>1</v>
       </c>
       <c r="C159" s="0">
         <v>5.9340287151447466</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="0">
         <v>16</v>
       </c>
-      <c r="B160" s="0" t="s">
-        <v>56</v>
+      <c r="B160" s="0">
+        <v>1</v>
       </c>
       <c r="C160" s="0">
         <v>5.9915321332343874</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="0">
         <v>16</v>
       </c>
-      <c r="B161" s="0" t="s">
-        <v>56</v>
+      <c r="B161" s="0">
+        <v>1</v>
       </c>
       <c r="C161" s="0">
         <v>3.7128370490851754</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="0">
         <v>17</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>56</v>
+      <c r="B162" s="0">
+        <v>1</v>
       </c>
       <c r="C162" s="0">
         <v>4.897693511583463</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="0">
         <v>17</v>
       </c>
-      <c r="B163" s="0" t="s">
-        <v>56</v>
+      <c r="B163" s="0">
+        <v>1</v>
       </c>
       <c r="C163" s="0">
         <v>2.7808139859457817</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="0">
         <v>17</v>
       </c>
-      <c r="B164" s="0" t="s">
-        <v>56</v>
+      <c r="B164" s="0">
+        <v>1</v>
       </c>
       <c r="C164" s="0">
         <v>3.6808670443369893</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="0">
         <v>17</v>
       </c>
-      <c r="B165" s="0" t="s">
-        <v>56</v>
+      <c r="B165" s="0">
+        <v>1</v>
       </c>
       <c r="C165" s="0">
         <v>4.0587514520679626</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="0">
         <v>17</v>
       </c>
-      <c r="B166" s="0" t="s">
-        <v>56</v>
+      <c r="B166" s="0">
+        <v>1</v>
       </c>
       <c r="C166" s="0">
         <v>3.5382423316630049</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="0">
         <v>17</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>56</v>
+      <c r="B167" s="0">
+        <v>1</v>
       </c>
       <c r="C167" s="0">
         <v>3.6829465005613122</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="0">
         <v>17</v>
       </c>
-      <c r="B168" s="0" t="s">
-        <v>56</v>
+      <c r="B168" s="0">
+        <v>1</v>
       </c>
       <c r="C168" s="0">
         <v>2.0023229077769886</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="0">
         <v>17</v>
       </c>
-      <c r="B169" s="0" t="s">
-        <v>56</v>
+      <c r="B169" s="0">
+        <v>1</v>
       </c>
       <c r="C169" s="0">
         <v>2.9942460807792575</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="0">
         <v>17</v>
       </c>
-      <c r="B170" s="0" t="s">
-        <v>56</v>
+      <c r="B170" s="0">
+        <v>1</v>
       </c>
       <c r="C170" s="0">
         <v>2.4844683944629242</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="0">
         <v>17</v>
       </c>
-      <c r="B171" s="0" t="s">
-        <v>56</v>
+      <c r="B171" s="0">
+        <v>1</v>
       </c>
       <c r="C171" s="0">
         <v>2.8244919457727966</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="0">
         <v>18</v>
       </c>
-      <c r="B172" s="0" t="s">
-        <v>56</v>
+      <c r="B172" s="0">
+        <v>1</v>
       </c>
       <c r="C172" s="0">
         <v>4.482793057265738</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="0">
         <v>18</v>
       </c>
-      <c r="B173" s="0" t="s">
-        <v>56</v>
+      <c r="B173" s="0">
+        <v>1</v>
       </c>
       <c r="C173" s="0">
         <v>3.9500032992019261</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="0">
         <v>18</v>
       </c>
-      <c r="B174" s="0" t="s">
-        <v>56</v>
+      <c r="B174" s="0">
+        <v>1</v>
       </c>
       <c r="C174" s="0">
         <v>3.7870941281692367</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="0">
         <v>18</v>
       </c>
-      <c r="B175" s="0" t="s">
-        <v>56</v>
+      <c r="B175" s="0">
+        <v>1</v>
       </c>
       <c r="C175" s="0">
         <v>3.1365385720440506</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="0">
         <v>18</v>
       </c>
-      <c r="B176" s="0" t="s">
-        <v>56</v>
+      <c r="B176" s="0">
+        <v>1</v>
       </c>
       <c r="C176" s="0">
         <v>5.5698812420409904</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="0">
         <v>18</v>
       </c>
-      <c r="B177" s="0" t="s">
-        <v>56</v>
+      <c r="B177" s="0">
+        <v>1</v>
       </c>
       <c r="C177" s="0">
         <v>2.6708800595141802</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="0">
         <v>18</v>
       </c>
-      <c r="B178" s="0" t="s">
-        <v>56</v>
+      <c r="B178" s="0">
+        <v>1</v>
       </c>
       <c r="C178" s="0">
         <v>2.3102702978068099</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="0">
         <v>18</v>
       </c>
-      <c r="B179" s="0" t="s">
-        <v>56</v>
+      <c r="B179" s="0">
+        <v>1</v>
       </c>
       <c r="C179" s="0">
         <v>3.7471851548220148</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="0">
         <v>18</v>
       </c>
-      <c r="B180" s="0" t="s">
-        <v>56</v>
+      <c r="B180" s="0">
+        <v>1</v>
       </c>
       <c r="C180" s="0">
         <v>4.2444210692840389</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="0">
         <v>18</v>
       </c>
-      <c r="B181" s="0" t="s">
-        <v>56</v>
+      <c r="B181" s="0">
+        <v>1</v>
       </c>
       <c r="C181" s="0">
         <v>4.0741929458044712</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B182" s="0" t="s">
-        <v>57</v>
+      <c r="A182" s="0">
+        <v>1</v>
+      </c>
+      <c r="B182" s="0">
+        <v>3</v>
       </c>
       <c r="C182" s="0">
         <v>2.5084061147669909</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B183" s="0" t="s">
-        <v>57</v>
+      <c r="A183" s="0">
+        <v>1</v>
+      </c>
+      <c r="B183" s="0">
+        <v>3</v>
       </c>
       <c r="C183" s="0">
         <v>4.0311511399757212</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B184" s="0" t="s">
-        <v>57</v>
+      <c r="A184" s="0">
+        <v>1</v>
+      </c>
+      <c r="B184" s="0">
+        <v>3</v>
       </c>
       <c r="C184" s="0">
         <v>2.7303622642677223</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B185" s="0" t="s">
-        <v>57</v>
+      <c r="A185" s="0">
+        <v>1</v>
+      </c>
+      <c r="B185" s="0">
+        <v>3</v>
       </c>
       <c r="C185" s="0">
         <v>2.8964684887833299</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B186" s="0" t="s">
-        <v>57</v>
+      <c r="A186" s="0">
+        <v>1</v>
+      </c>
+      <c r="B186" s="0">
+        <v>3</v>
       </c>
       <c r="C186" s="0">
         <v>3.884455237147717</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B187" s="0" t="s">
-        <v>57</v>
+      <c r="A187" s="0">
+        <v>1</v>
+      </c>
+      <c r="B187" s="0">
+        <v>3</v>
       </c>
       <c r="C187" s="0">
         <v>1.8407242803274941</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B188" s="0" t="s">
-        <v>57</v>
+      <c r="A188" s="0">
+        <v>1</v>
+      </c>
+      <c r="B188" s="0">
+        <v>3</v>
       </c>
       <c r="C188" s="0">
         <v>2.7410679706535701</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B189" s="0" t="s">
-        <v>57</v>
+      <c r="A189" s="0">
+        <v>1</v>
+      </c>
+      <c r="B189" s="0">
+        <v>3</v>
       </c>
       <c r="C189" s="0">
         <v>2.4587268582061377</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B190" s="0" t="s">
-        <v>57</v>
+      <c r="A190" s="0">
+        <v>1</v>
+      </c>
+      <c r="B190" s="0">
+        <v>3</v>
       </c>
       <c r="C190" s="0">
         <v>3.8259862278112275</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B191" s="0" t="s">
-        <v>57</v>
+      <c r="A191" s="0">
+        <v>1</v>
+      </c>
+      <c r="B191" s="0">
+        <v>3</v>
       </c>
       <c r="C191" s="0">
         <v>4.2713948764883227</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B192" s="0" t="s">
-        <v>57</v>
+      <c r="A192" s="0">
+        <v>2</v>
+      </c>
+      <c r="B192" s="0">
+        <v>3</v>
       </c>
       <c r="C192" s="0">
         <v>5.6889796797387939</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B193" s="0" t="s">
-        <v>57</v>
+      <c r="A193" s="0">
+        <v>2</v>
+      </c>
+      <c r="B193" s="0">
+        <v>3</v>
       </c>
       <c r="C193" s="0">
         <v>3.8568501699258948</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B194" s="0" t="s">
-        <v>57</v>
+      <c r="A194" s="0">
+        <v>2</v>
+      </c>
+      <c r="B194" s="0">
+        <v>3</v>
       </c>
       <c r="C194" s="0">
         <v>2.4539220492744063</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B195" s="0" t="s">
-        <v>57</v>
+      <c r="A195" s="0">
+        <v>2</v>
+      </c>
+      <c r="B195" s="0">
+        <v>3</v>
       </c>
       <c r="C195" s="0">
         <v>2.9865130485064362</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B196" s="0" t="s">
-        <v>57</v>
+      <c r="A196" s="0">
+        <v>2</v>
+      </c>
+      <c r="B196" s="0">
+        <v>3</v>
       </c>
       <c r="C196" s="0">
         <v>3.2455022189490763</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B197" s="0" t="s">
-        <v>57</v>
+      <c r="A197" s="0">
+        <v>2</v>
+      </c>
+      <c r="B197" s="0">
+        <v>3</v>
       </c>
       <c r="C197" s="0">
         <v>2.8753265931116951</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B198" s="0" t="s">
-        <v>57</v>
+      <c r="A198" s="0">
+        <v>2</v>
+      </c>
+      <c r="B198" s="0">
+        <v>3</v>
       </c>
       <c r="C198" s="0">
         <v>4.799406428654029</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B199" s="0" t="s">
-        <v>57</v>
+      <c r="A199" s="0">
+        <v>2</v>
+      </c>
+      <c r="B199" s="0">
+        <v>3</v>
       </c>
       <c r="C199" s="0">
         <v>3.8206123889054888</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B200" s="0" t="s">
-        <v>57</v>
+      <c r="A200" s="0">
+        <v>2</v>
+      </c>
+      <c r="B200" s="0">
+        <v>3</v>
       </c>
       <c r="C200" s="0">
         <v>5.8260208268028748</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B201" s="0" t="s">
-        <v>57</v>
+      <c r="A201" s="0">
+        <v>2</v>
+      </c>
+      <c r="B201" s="0">
+        <v>3</v>
       </c>
       <c r="C201" s="0">
         <v>8.2010660901251651</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B202" s="0" t="s">
-        <v>57</v>
+      <c r="A202" s="0">
+        <v>3</v>
+      </c>
+      <c r="B202" s="0">
+        <v>3</v>
       </c>
       <c r="C202" s="0">
         <v>6.9071199207653562</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B203" s="0" t="s">
-        <v>57</v>
+      <c r="A203" s="0">
+        <v>3</v>
+      </c>
+      <c r="B203" s="0">
+        <v>3</v>
       </c>
       <c r="C203" s="0">
         <v>4.5266730646767019</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B204" s="0" t="s">
-        <v>57</v>
+      <c r="A204" s="0">
+        <v>3</v>
+      </c>
+      <c r="B204" s="0">
+        <v>3</v>
       </c>
       <c r="C204" s="0">
         <v>5.7845154731050457</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B205" s="0" t="s">
-        <v>57</v>
+      <c r="A205" s="0">
+        <v>3</v>
+      </c>
+      <c r="B205" s="0">
+        <v>3</v>
       </c>
       <c r="C205" s="0">
         <v>5.1554141520456183</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>57</v>
+      <c r="A206" s="0">
+        <v>3</v>
+      </c>
+      <c r="B206" s="0">
+        <v>3</v>
       </c>
       <c r="C206" s="0">
         <v>6.5088665715105094</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B207" s="0" t="s">
-        <v>57</v>
+      <c r="A207" s="0">
+        <v>3</v>
+      </c>
+      <c r="B207" s="0">
+        <v>3</v>
       </c>
       <c r="C207" s="0">
         <v>6.2875076388375</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B208" s="0" t="s">
-        <v>57</v>
+      <c r="A208" s="0">
+        <v>3</v>
+      </c>
+      <c r="B208" s="0">
+        <v>3</v>
       </c>
       <c r="C208" s="0">
         <v>6.3574122661994474</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>57</v>
+      <c r="A209" s="0">
+        <v>3</v>
+      </c>
+      <c r="B209" s="0">
+        <v>3</v>
       </c>
       <c r="C209" s="0">
         <v>6.2158527678100635</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>57</v>
+      <c r="A210" s="0">
+        <v>3</v>
+      </c>
+      <c r="B210" s="0">
+        <v>3</v>
       </c>
       <c r="C210" s="0">
         <v>5.461842672381068</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>57</v>
+      <c r="A211" s="0">
+        <v>3</v>
+      </c>
+      <c r="B211" s="0">
+        <v>3</v>
       </c>
       <c r="C211" s="0">
         <v>8.0993730730715168</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>57</v>
+      <c r="A212" s="0">
+        <v>4</v>
+      </c>
+      <c r="B212" s="0">
+        <v>3</v>
       </c>
       <c r="C212" s="0">
         <v>9.0882491853882144</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>57</v>
+      <c r="A213" s="0">
+        <v>4</v>
+      </c>
+      <c r="B213" s="0">
+        <v>3</v>
       </c>
       <c r="C213" s="0">
         <v>8.4195753477330584</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>57</v>
+      <c r="A214" s="0">
+        <v>4</v>
+      </c>
+      <c r="B214" s="0">
+        <v>3</v>
       </c>
       <c r="C214" s="0">
         <v>7.4499344589943526</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>57</v>
+      <c r="A215" s="0">
+        <v>4</v>
+      </c>
+      <c r="B215" s="0">
+        <v>3</v>
       </c>
       <c r="C215" s="0">
         <v>5.4557532132180828</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>57</v>
+      <c r="A216" s="0">
+        <v>4</v>
+      </c>
+      <c r="B216" s="0">
+        <v>3</v>
       </c>
       <c r="C216" s="0">
         <v>6.8547634822453647</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B217" s="0" t="s">
-        <v>57</v>
+      <c r="A217" s="0">
+        <v>4</v>
+      </c>
+      <c r="B217" s="0">
+        <v>3</v>
       </c>
       <c r="C217" s="0">
         <v>6.6354922279207953</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B218" s="0" t="s">
-        <v>57</v>
+      <c r="A218" s="0">
+        <v>4</v>
+      </c>
+      <c r="B218" s="0">
+        <v>3</v>
       </c>
       <c r="C218" s="0">
         <v>5.9912060775147848</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B219" s="0" t="s">
-        <v>57</v>
+      <c r="A219" s="0">
+        <v>4</v>
+      </c>
+      <c r="B219" s="0">
+        <v>3</v>
       </c>
       <c r="C219" s="0">
         <v>4.5283149927361945</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B220" s="0" t="s">
-        <v>57</v>
+      <c r="A220" s="0">
+        <v>4</v>
+      </c>
+      <c r="B220" s="0">
+        <v>3</v>
       </c>
       <c r="C220" s="0">
         <v>8.0338042125188078</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B221" s="0" t="s">
-        <v>57</v>
+      <c r="A221" s="0">
+        <v>4</v>
+      </c>
+      <c r="B221" s="0">
+        <v>3</v>
       </c>
       <c r="C221" s="0">
         <v>10.164074412369906</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B222" s="0" t="s">
-        <v>57</v>
+      <c r="A222" s="0">
+        <v>5</v>
+      </c>
+      <c r="B222" s="0">
+        <v>3</v>
       </c>
       <c r="C222" s="0">
         <v>4.0162092039036414</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B223" s="0" t="s">
-        <v>57</v>
+      <c r="A223" s="0">
+        <v>5</v>
+      </c>
+      <c r="B223" s="0">
+        <v>3</v>
       </c>
       <c r="C223" s="0">
         <v>3.9671789739505749</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B224" s="0" t="s">
-        <v>57</v>
+      <c r="A224" s="0">
+        <v>5</v>
+      </c>
+      <c r="B224" s="0">
+        <v>3</v>
       </c>
       <c r="C224" s="0">
         <v>6.8773832808885755</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>57</v>
+      <c r="A225" s="0">
+        <v>5</v>
+      </c>
+      <c r="B225" s="0">
+        <v>3</v>
       </c>
       <c r="C225" s="0">
         <v>3.2065894320166448</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>57</v>
+      <c r="A226" s="0">
+        <v>5</v>
+      </c>
+      <c r="B226" s="0">
+        <v>3</v>
       </c>
       <c r="C226" s="0">
         <v>4.8700653947936212</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>57</v>
+      <c r="A227" s="0">
+        <v>5</v>
+      </c>
+      <c r="B227" s="0">
+        <v>3</v>
       </c>
       <c r="C227" s="0">
         <v>6.1420481425735867</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>57</v>
+      <c r="A228" s="0">
+        <v>5</v>
+      </c>
+      <c r="B228" s="0">
+        <v>3</v>
       </c>
       <c r="C228" s="0">
         <v>3.7173636213564087</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>57</v>
+      <c r="A229" s="0">
+        <v>5</v>
+      </c>
+      <c r="B229" s="0">
+        <v>3</v>
       </c>
       <c r="C229" s="0">
         <v>5.1256944490636052</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>57</v>
+      <c r="A230" s="0">
+        <v>5</v>
+      </c>
+      <c r="B230" s="0">
+        <v>3</v>
       </c>
       <c r="C230" s="0">
         <v>5.1172744580961309</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>57</v>
+      <c r="A231" s="0">
+        <v>5</v>
+      </c>
+      <c r="B231" s="0">
+        <v>3</v>
       </c>
       <c r="C231" s="0">
         <v>3.3144449136441603</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>57</v>
+      <c r="A232" s="0">
+        <v>6</v>
+      </c>
+      <c r="B232" s="0">
+        <v>3</v>
       </c>
       <c r="C232" s="0">
         <v>1.7450586922202092</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>57</v>
+      <c r="A233" s="0">
+        <v>6</v>
+      </c>
+      <c r="B233" s="0">
+        <v>3</v>
       </c>
       <c r="C233" s="0">
         <v>6.6404544185762795</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>57</v>
+      <c r="A234" s="0">
+        <v>6</v>
+      </c>
+      <c r="B234" s="0">
+        <v>3</v>
       </c>
       <c r="C234" s="0">
         <v>8.0796002758718597</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>57</v>
+      <c r="A235" s="0">
+        <v>6</v>
+      </c>
+      <c r="B235" s="0">
+        <v>3</v>
       </c>
       <c r="C235" s="0">
         <v>6.8871906074235785</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>57</v>
+      <c r="A236" s="0">
+        <v>6</v>
+      </c>
+      <c r="B236" s="0">
+        <v>3</v>
       </c>
       <c r="C236" s="0">
         <v>7.176592806113125</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>57</v>
+      <c r="A237" s="0">
+        <v>6</v>
+      </c>
+      <c r="B237" s="0">
+        <v>3</v>
       </c>
       <c r="C237" s="0">
         <v>6.6336728033149539</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>57</v>
+      <c r="A238" s="0">
+        <v>6</v>
+      </c>
+      <c r="B238" s="0">
+        <v>3</v>
       </c>
       <c r="C238" s="0">
         <v>7.3227184894281052</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>57</v>
+      <c r="A239" s="0">
+        <v>6</v>
+      </c>
+      <c r="B239" s="0">
+        <v>3</v>
       </c>
       <c r="C239" s="0">
         <v>7.4999779329089673</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>57</v>
+      <c r="A240" s="0">
+        <v>6</v>
+      </c>
+      <c r="B240" s="0">
+        <v>3</v>
       </c>
       <c r="C240" s="0">
         <v>5.6789070080802579</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>57</v>
+      <c r="A241" s="0">
+        <v>6</v>
+      </c>
+      <c r="B241" s="0">
+        <v>3</v>
       </c>
       <c r="C241" s="0">
         <v>1.2051872406201198</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>57</v>
+      <c r="A242" s="0">
+        <v>7</v>
+      </c>
+      <c r="B242" s="0">
+        <v>3</v>
       </c>
       <c r="C242" s="0">
         <v>8.3767726423072375</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>57</v>
+      <c r="A243" s="0">
+        <v>7</v>
+      </c>
+      <c r="B243" s="0">
+        <v>3</v>
       </c>
       <c r="C243" s="0">
         <v>5.378119835887337</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>57</v>
+      <c r="A244" s="0">
+        <v>7</v>
+      </c>
+      <c r="B244" s="0">
+        <v>3</v>
       </c>
       <c r="C244" s="0">
         <v>8.8682437841130497</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B245" s="0" t="s">
-        <v>57</v>
+      <c r="A245" s="0">
+        <v>7</v>
+      </c>
+      <c r="B245" s="0">
+        <v>3</v>
       </c>
       <c r="C245" s="0">
         <v>13.348953561513177</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B246" s="0" t="s">
-        <v>57</v>
+      <c r="A246" s="0">
+        <v>7</v>
+      </c>
+      <c r="B246" s="0">
+        <v>3</v>
       </c>
       <c r="C246" s="0">
         <v>10.731254632492375</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B247" s="0" t="s">
-        <v>57</v>
+      <c r="A247" s="0">
+        <v>7</v>
+      </c>
+      <c r="B247" s="0">
+        <v>3</v>
       </c>
       <c r="C247" s="0">
         <v>9.5417968455248481</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B248" s="0" t="s">
-        <v>57</v>
+      <c r="A248" s="0">
+        <v>7</v>
+      </c>
+      <c r="B248" s="0">
+        <v>3</v>
       </c>
       <c r="C248" s="0">
         <v>4.3532110532611457</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>57</v>
+      <c r="A249" s="0">
+        <v>7</v>
+      </c>
+      <c r="B249" s="0">
+        <v>3</v>
       </c>
       <c r="C249" s="0">
         <v>13.523206981264702</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>57</v>
+      <c r="A250" s="0">
+        <v>7</v>
+      </c>
+      <c r="B250" s="0">
+        <v>3</v>
       </c>
       <c r="C250" s="0">
         <v>7.6880489106479439</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B251" s="0" t="s">
-        <v>57</v>
+      <c r="A251" s="0">
+        <v>7</v>
+      </c>
+      <c r="B251" s="0">
+        <v>3</v>
       </c>
       <c r="C251" s="0">
         <v>7.0398255986514746</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B252" s="0" t="s">
-        <v>57</v>
+      <c r="A252" s="0">
+        <v>8</v>
+      </c>
+      <c r="B252" s="0">
+        <v>3</v>
       </c>
       <c r="C252" s="0">
         <v>2.4580186731651139</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B253" s="0" t="s">
-        <v>57</v>
+      <c r="A253" s="0">
+        <v>8</v>
+      </c>
+      <c r="B253" s="0">
+        <v>3</v>
       </c>
       <c r="C253" s="0">
         <v>3.2848644599534622</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B254" s="0" t="s">
-        <v>57</v>
+      <c r="A254" s="0">
+        <v>8</v>
+      </c>
+      <c r="B254" s="0">
+        <v>3</v>
       </c>
       <c r="C254" s="0">
         <v>2.2536759557345669</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B255" s="0" t="s">
-        <v>57</v>
+      <c r="A255" s="0">
+        <v>8</v>
+      </c>
+      <c r="B255" s="0">
+        <v>3</v>
       </c>
       <c r="C255" s="0">
         <v>5.3185987565671251</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B256" s="0" t="s">
-        <v>57</v>
+      <c r="A256" s="0">
+        <v>8</v>
+      </c>
+      <c r="B256" s="0">
+        <v>3</v>
       </c>
       <c r="C256" s="0">
         <v>4.503015674008509</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B257" s="0" t="s">
-        <v>57</v>
+      <c r="A257" s="0">
+        <v>8</v>
+      </c>
+      <c r="B257" s="0">
+        <v>3</v>
       </c>
       <c r="C257" s="0">
         <v>4.818523717205105</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B258" s="0" t="s">
-        <v>57</v>
+      <c r="A258" s="0">
+        <v>8</v>
+      </c>
+      <c r="B258" s="0">
+        <v>3</v>
       </c>
       <c r="C258" s="0">
         <v>3.0460209189684133</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>57</v>
+      <c r="A259" s="0">
+        <v>8</v>
+      </c>
+      <c r="B259" s="0">
+        <v>3</v>
       </c>
       <c r="C259" s="0">
         <v>2.6787128745211359</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B260" s="0" t="s">
-        <v>57</v>
+      <c r="A260" s="0">
+        <v>8</v>
+      </c>
+      <c r="B260" s="0">
+        <v>3</v>
       </c>
       <c r="C260" s="0">
         <v>5.5488809389547447</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B261" s="0" t="s">
-        <v>57</v>
+      <c r="A261" s="0">
+        <v>8</v>
+      </c>
+      <c r="B261" s="0">
+        <v>3</v>
       </c>
       <c r="C261" s="0">
         <v>6.138708652123988</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B262" s="0" t="s">
-        <v>57</v>
+      <c r="A262" s="0">
+        <v>9</v>
+      </c>
+      <c r="B262" s="0">
+        <v>3</v>
       </c>
       <c r="C262" s="0">
         <v>6.4136769142275352</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B263" s="0" t="s">
-        <v>57</v>
+      <c r="A263" s="0">
+        <v>9</v>
+      </c>
+      <c r="B263" s="0">
+        <v>3</v>
       </c>
       <c r="C263" s="0">
         <v>4.7777611735563266</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B264" s="0" t="s">
-        <v>57</v>
+      <c r="A264" s="0">
+        <v>9</v>
+      </c>
+      <c r="B264" s="0">
+        <v>3</v>
       </c>
       <c r="C264" s="0">
         <v>3.819529970632817</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B265" s="0" t="s">
-        <v>57</v>
+      <c r="A265" s="0">
+        <v>9</v>
+      </c>
+      <c r="B265" s="0">
+        <v>3</v>
       </c>
       <c r="C265" s="0">
         <v>4.2925721869598172</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B266" s="0" t="s">
-        <v>57</v>
+      <c r="A266" s="0">
+        <v>9</v>
+      </c>
+      <c r="B266" s="0">
+        <v>3</v>
       </c>
       <c r="C266" s="0">
         <v>4.3624372130218836</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B267" s="0" t="s">
-        <v>57</v>
+      <c r="A267" s="0">
+        <v>9</v>
+      </c>
+      <c r="B267" s="0">
+        <v>3</v>
       </c>
       <c r="C267" s="0">
         <v>2.9179559758433502</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B268" s="0" t="s">
-        <v>57</v>
+      <c r="A268" s="0">
+        <v>9</v>
+      </c>
+      <c r="B268" s="0">
+        <v>3</v>
       </c>
       <c r="C268" s="0">
         <v>6.7419498467890886</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B269" s="0" t="s">
-        <v>57</v>
+      <c r="A269" s="0">
+        <v>9</v>
+      </c>
+      <c r="B269" s="0">
+        <v>3</v>
       </c>
       <c r="C269" s="0">
         <v>4.6604156397082876</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B270" s="0" t="s">
-        <v>57</v>
+      <c r="A270" s="0">
+        <v>9</v>
+      </c>
+      <c r="B270" s="0">
+        <v>3</v>
       </c>
       <c r="C270" s="0">
         <v>3.5456188476381869</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B271" s="0" t="s">
-        <v>57</v>
+      <c r="A271" s="0">
+        <v>9</v>
+      </c>
+      <c r="B271" s="0">
+        <v>3</v>
       </c>
       <c r="C271" s="0">
         <v>3.8781223419522455</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B272" s="0" t="s">
-        <v>57</v>
+      <c r="A272" s="0">
+        <v>10</v>
+      </c>
+      <c r="B272" s="0">
+        <v>3</v>
       </c>
       <c r="C272" s="0">
         <v>6.7992977542163144</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B273" s="0" t="s">
-        <v>57</v>
+      <c r="A273" s="0">
+        <v>10</v>
+      </c>
+      <c r="B273" s="0">
+        <v>3</v>
       </c>
       <c r="C273" s="0">
         <v>2.3605138254662568</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B274" s="0" t="s">
-        <v>57</v>
+      <c r="A274" s="0">
+        <v>10</v>
+      </c>
+      <c r="B274" s="0">
+        <v>3</v>
       </c>
       <c r="C274" s="0">
         <v>7.4773480317492167</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B275" s="0" t="s">
-        <v>57</v>
+      <c r="A275" s="0">
+        <v>10</v>
+      </c>
+      <c r="B275" s="0">
+        <v>3</v>
       </c>
       <c r="C275" s="0">
         <v>5.8766863368055384</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B276" s="0" t="s">
-        <v>57</v>
+      <c r="A276" s="0">
+        <v>10</v>
+      </c>
+      <c r="B276" s="0">
+        <v>3</v>
       </c>
       <c r="C276" s="0">
         <v>6.2258853742672677</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B277" s="0" t="s">
-        <v>57</v>
+      <c r="A277" s="0">
+        <v>10</v>
+      </c>
+      <c r="B277" s="0">
+        <v>3</v>
       </c>
       <c r="C277" s="0">
         <v>7.2292476965131831</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B278" s="0" t="s">
-        <v>57</v>
+      <c r="A278" s="0">
+        <v>10</v>
+      </c>
+      <c r="B278" s="0">
+        <v>3</v>
       </c>
       <c r="C278" s="0">
         <v>9.5250349903263132</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B279" s="0" t="s">
-        <v>57</v>
+      <c r="A279" s="0">
+        <v>10</v>
+      </c>
+      <c r="B279" s="0">
+        <v>3</v>
       </c>
       <c r="C279" s="0">
         <v>7.6356330112539279</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B280" s="0" t="s">
-        <v>57</v>
+      <c r="A280" s="0">
+        <v>10</v>
+      </c>
+      <c r="B280" s="0">
+        <v>3</v>
       </c>
       <c r="C280" s="0">
         <v>9.6496257051043557</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B281" s="0" t="s">
-        <v>57</v>
+      <c r="A281" s="0">
+        <v>10</v>
+      </c>
+      <c r="B281" s="0">
+        <v>3</v>
       </c>
       <c r="C281" s="0">
         <v>8.7256891071342171</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B282" s="0" t="s">
-        <v>57</v>
+      <c r="A282" s="0">
+        <v>11</v>
+      </c>
+      <c r="B282" s="0">
+        <v>3</v>
       </c>
       <c r="C282" s="0">
         <v>3.5771588861928172</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B283" s="0" t="s">
-        <v>57</v>
+      <c r="A283" s="0">
+        <v>11</v>
+      </c>
+      <c r="B283" s="0">
+        <v>3</v>
       </c>
       <c r="C283" s="0">
         <v>3.1620430899962884</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B284" s="0" t="s">
-        <v>57</v>
+      <c r="A284" s="0">
+        <v>11</v>
+      </c>
+      <c r="B284" s="0">
+        <v>3</v>
       </c>
       <c r="C284" s="0">
         <v>2.5927205824205402</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B285" s="0" t="s">
-        <v>57</v>
+      <c r="A285" s="0">
+        <v>11</v>
+      </c>
+      <c r="B285" s="0">
+        <v>3</v>
       </c>
       <c r="C285" s="0">
         <v>3.4466052651449837</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B286" s="0" t="s">
-        <v>57</v>
+      <c r="A286" s="0">
+        <v>11</v>
+      </c>
+      <c r="B286" s="0">
+        <v>3</v>
       </c>
       <c r="C286" s="0">
         <v>3.3325434971311014</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>57</v>
+      <c r="A287" s="0">
+        <v>11</v>
+      </c>
+      <c r="B287" s="0">
+        <v>3</v>
       </c>
       <c r="C287" s="0">
         <v>3.5012307790092736</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B288" s="0" t="s">
-        <v>57</v>
+      <c r="A288" s="0">
+        <v>11</v>
+      </c>
+      <c r="B288" s="0">
+        <v>3</v>
       </c>
       <c r="C288" s="0">
         <v>4.268885495786825</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B289" s="0" t="s">
-        <v>57</v>
+      <c r="A289" s="0">
+        <v>11</v>
+      </c>
+      <c r="B289" s="0">
+        <v>3</v>
       </c>
       <c r="C289" s="0">
         <v>3.9322832399698564</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B290" s="0" t="s">
-        <v>57</v>
+      <c r="A290" s="0">
+        <v>11</v>
+      </c>
+      <c r="B290" s="0">
+        <v>3</v>
       </c>
       <c r="C290" s="0">
         <v>3.4780575693470932</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>57</v>
+      <c r="A291" s="0">
+        <v>11</v>
+      </c>
+      <c r="B291" s="0">
+        <v>3</v>
       </c>
       <c r="C291" s="0">
         <v>3.3873826064563515</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B292" s="0" t="s">
-        <v>57</v>
+      <c r="A292" s="0">
+        <v>12</v>
+      </c>
+      <c r="B292" s="0">
+        <v>3</v>
       </c>
       <c r="C292" s="0">
         <v>2.9396598658656092</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>57</v>
+      <c r="A293" s="0">
+        <v>12</v>
+      </c>
+      <c r="B293" s="0">
+        <v>3</v>
       </c>
       <c r="C293" s="0">
         <v>4.3501962856775229</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>57</v>
+      <c r="A294" s="0">
+        <v>12</v>
+      </c>
+      <c r="B294" s="0">
+        <v>3</v>
       </c>
       <c r="C294" s="0">
         <v>4.9381631440148945</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>57</v>
+      <c r="A295" s="0">
+        <v>12</v>
+      </c>
+      <c r="B295" s="0">
+        <v>3</v>
       </c>
       <c r="C295" s="0">
         <v>3.7506422916385418</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B296" s="0" t="s">
-        <v>57</v>
+      <c r="A296" s="0">
+        <v>12</v>
+      </c>
+      <c r="B296" s="0">
+        <v>3</v>
       </c>
       <c r="C296" s="0">
         <v>4.9440489687230933</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B297" s="0" t="s">
-        <v>57</v>
+      <c r="A297" s="0">
+        <v>12</v>
+      </c>
+      <c r="B297" s="0">
+        <v>3</v>
       </c>
       <c r="C297" s="0">
         <v>3.5808070836480175</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>57</v>
+      <c r="A298" s="0">
+        <v>12</v>
+      </c>
+      <c r="B298" s="0">
+        <v>3</v>
       </c>
       <c r="C298" s="0">
         <v>3.5746119568900316</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>57</v>
+      <c r="A299" s="0">
+        <v>12</v>
+      </c>
+      <c r="B299" s="0">
+        <v>3</v>
       </c>
       <c r="C299" s="0">
         <v>3.8034125962852738</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>57</v>
+      <c r="A300" s="0">
+        <v>12</v>
+      </c>
+      <c r="B300" s="0">
+        <v>3</v>
       </c>
       <c r="C300" s="0">
         <v>3.788933763010768</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>57</v>
+      <c r="A301" s="0">
+        <v>12</v>
+      </c>
+      <c r="B301" s="0">
+        <v>3</v>
       </c>
       <c r="C301" s="0">
         <v>1.7748729819276352</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>57</v>
+      <c r="A302" s="0">
+        <v>13</v>
+      </c>
+      <c r="B302" s="0">
+        <v>3</v>
       </c>
       <c r="C302" s="0">
         <v>4.6005231231352086</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>57</v>
+      <c r="A303" s="0">
+        <v>13</v>
+      </c>
+      <c r="B303" s="0">
+        <v>3</v>
       </c>
       <c r="C303" s="0">
         <v>3.7108778307149888</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>57</v>
+      <c r="A304" s="0">
+        <v>13</v>
+      </c>
+      <c r="B304" s="0">
+        <v>3</v>
       </c>
       <c r="C304" s="0">
         <v>2.2624464972609211</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>57</v>
+      <c r="A305" s="0">
+        <v>13</v>
+      </c>
+      <c r="B305" s="0">
+        <v>3</v>
       </c>
       <c r="C305" s="0">
         <v>2.3195134975794525</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>57</v>
+      <c r="A306" s="0">
+        <v>13</v>
+      </c>
+      <c r="B306" s="0">
+        <v>3</v>
       </c>
       <c r="C306" s="0">
         <v>6.5104379032322219</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>57</v>
+      <c r="A307" s="0">
+        <v>13</v>
+      </c>
+      <c r="B307" s="0">
+        <v>3</v>
       </c>
       <c r="C307" s="0">
         <v>4.7419077273469901</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>57</v>
+      <c r="A308" s="0">
+        <v>13</v>
+      </c>
+      <c r="B308" s="0">
+        <v>3</v>
       </c>
       <c r="C308" s="0">
         <v>4.3533152149182035</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>57</v>
+      <c r="A309" s="0">
+        <v>13</v>
+      </c>
+      <c r="B309" s="0">
+        <v>3</v>
       </c>
       <c r="C309" s="0">
         <v>5.9900818665605264</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>57</v>
+      <c r="A310" s="0">
+        <v>13</v>
+      </c>
+      <c r="B310" s="0">
+        <v>3</v>
       </c>
       <c r="C310" s="0">
         <v>3.3085405716693366</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>57</v>
+      <c r="A311" s="0">
+        <v>13</v>
+      </c>
+      <c r="B311" s="0">
+        <v>3</v>
       </c>
       <c r="C311" s="0">
         <v>4.5043072797393799</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B312" s="0" t="s">
-        <v>57</v>
+      <c r="A312" s="0">
+        <v>14</v>
+      </c>
+      <c r="B312" s="0">
+        <v>3</v>
       </c>
       <c r="C312" s="0">
         <v>4.3978682852233089</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>57</v>
+      <c r="A313" s="0">
+        <v>14</v>
+      </c>
+      <c r="B313" s="0">
+        <v>3</v>
       </c>
       <c r="C313" s="0">
         <v>5.7323453869322343</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>57</v>
+      <c r="A314" s="0">
+        <v>14</v>
+      </c>
+      <c r="B314" s="0">
+        <v>3</v>
       </c>
       <c r="C314" s="0">
         <v>6.143088403663385</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>57</v>
+      <c r="A315" s="0">
+        <v>14</v>
+      </c>
+      <c r="B315" s="0">
+        <v>3</v>
       </c>
       <c r="C315" s="0">
         <v>7.4923034550619425</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>57</v>
+      <c r="A316" s="0">
+        <v>14</v>
+      </c>
+      <c r="B316" s="0">
+        <v>3</v>
       </c>
       <c r="C316" s="0">
         <v>3.8704520021398801</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B317" s="0" t="s">
-        <v>57</v>
+      <c r="A317" s="0">
+        <v>14</v>
+      </c>
+      <c r="B317" s="0">
+        <v>3</v>
       </c>
       <c r="C317" s="0">
         <v>5.818622843682892</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B318" s="0" t="s">
-        <v>57</v>
+      <c r="A318" s="0">
+        <v>14</v>
+      </c>
+      <c r="B318" s="0">
+        <v>3</v>
       </c>
       <c r="C318" s="0">
         <v>7.8105854884118333</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>57</v>
+      <c r="A319" s="0">
+        <v>14</v>
+      </c>
+      <c r="B319" s="0">
+        <v>3</v>
       </c>
       <c r="C319" s="0">
         <v>8.7276829478602131</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>57</v>
+      <c r="A320" s="0">
+        <v>14</v>
+      </c>
+      <c r="B320" s="0">
+        <v>3</v>
       </c>
       <c r="C320" s="0">
         <v>10.022440569396743</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>57</v>
+      <c r="A321" s="0">
+        <v>14</v>
+      </c>
+      <c r="B321" s="0">
+        <v>3</v>
       </c>
       <c r="C321" s="0">
         <v>9.2961762883073717</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>57</v>
+      <c r="A322" s="0">
+        <v>15</v>
+      </c>
+      <c r="B322" s="0">
+        <v>3</v>
       </c>
       <c r="C322" s="0">
         <v>4.9661957167738615</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>57</v>
+      <c r="A323" s="0">
+        <v>15</v>
+      </c>
+      <c r="B323" s="0">
+        <v>3</v>
       </c>
       <c r="C323" s="0">
         <v>1.8293456995587112</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>57</v>
+      <c r="A324" s="0">
+        <v>15</v>
+      </c>
+      <c r="B324" s="0">
+        <v>3</v>
       </c>
       <c r="C324" s="0">
         <v>0.89600661087075495</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B325" s="0" t="s">
-        <v>57</v>
+      <c r="A325" s="0">
+        <v>15</v>
+      </c>
+      <c r="B325" s="0">
+        <v>3</v>
       </c>
       <c r="C325" s="0">
         <v>3.8995917514168355</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>57</v>
+      <c r="A326" s="0">
+        <v>15</v>
+      </c>
+      <c r="B326" s="0">
+        <v>3</v>
       </c>
       <c r="C326" s="0">
         <v>3.7476727441804605</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>57</v>
+      <c r="A327" s="0">
+        <v>15</v>
+      </c>
+      <c r="B327" s="0">
+        <v>3</v>
       </c>
       <c r="C327" s="0">
         <v>4.0301747784727544</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B328" s="0" t="s">
-        <v>57</v>
+      <c r="A328" s="0">
+        <v>15</v>
+      </c>
+      <c r="B328" s="0">
+        <v>3</v>
       </c>
       <c r="C328" s="0">
         <v>1.5831217455371096</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>57</v>
+      <c r="A329" s="0">
+        <v>15</v>
+      </c>
+      <c r="B329" s="0">
+        <v>3</v>
       </c>
       <c r="C329" s="0">
         <v>1.9265361734123478</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>57</v>
+      <c r="A330" s="0">
+        <v>15</v>
+      </c>
+      <c r="B330" s="0">
+        <v>3</v>
       </c>
       <c r="C330" s="0">
         <v>1.9237177839742643</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>57</v>
+      <c r="A331" s="0">
+        <v>15</v>
+      </c>
+      <c r="B331" s="0">
+        <v>3</v>
       </c>
       <c r="C331" s="0">
         <v>2.512971631398027</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>57</v>
+      <c r="A332" s="0">
+        <v>16</v>
+      </c>
+      <c r="B332" s="0">
+        <v>3</v>
       </c>
       <c r="C332" s="0">
         <v>6.8882436934567606</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B333" s="0" t="s">
-        <v>57</v>
+      <c r="A333" s="0">
+        <v>16</v>
+      </c>
+      <c r="B333" s="0">
+        <v>3</v>
       </c>
       <c r="C333" s="0">
         <v>6.9486075291827776</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>57</v>
+      <c r="A334" s="0">
+        <v>16</v>
+      </c>
+      <c r="B334" s="0">
+        <v>3</v>
       </c>
       <c r="C334" s="0">
         <v>4.0085190834593041</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B335" s="0" t="s">
-        <v>57</v>
+      <c r="A335" s="0">
+        <v>16</v>
+      </c>
+      <c r="B335" s="0">
+        <v>3</v>
       </c>
       <c r="C335" s="0">
         <v>3.3982437435660562</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>57</v>
+      <c r="A336" s="0">
+        <v>16</v>
+      </c>
+      <c r="B336" s="0">
+        <v>3</v>
       </c>
       <c r="C336" s="0">
         <v>6.2665251383431038</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>57</v>
+      <c r="A337" s="0">
+        <v>16</v>
+      </c>
+      <c r="B337" s="0">
+        <v>3</v>
       </c>
       <c r="C337" s="0">
         <v>6.097348619069388</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>57</v>
+      <c r="A338" s="0">
+        <v>16</v>
+      </c>
+      <c r="B338" s="0">
+        <v>3</v>
       </c>
       <c r="C338" s="0">
         <v>5.7297448675604361</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>57</v>
+      <c r="A339" s="0">
+        <v>16</v>
+      </c>
+      <c r="B339" s="0">
+        <v>3</v>
       </c>
       <c r="C339" s="0">
         <v>2.2611048835627416</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>57</v>
+      <c r="A340" s="0">
+        <v>16</v>
+      </c>
+      <c r="B340" s="0">
+        <v>3</v>
       </c>
       <c r="C340" s="0">
         <v>6.356491560021194</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>57</v>
+      <c r="A341" s="0">
+        <v>16</v>
+      </c>
+      <c r="B341" s="0">
+        <v>3</v>
       </c>
       <c r="C341" s="0">
         <v>3.8044658715487616</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>57</v>
+      <c r="A342" s="0">
+        <v>17</v>
+      </c>
+      <c r="B342" s="0">
+        <v>3</v>
       </c>
       <c r="C342" s="0">
         <v>5.1892096816349538</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>57</v>
+      <c r="A343" s="0">
+        <v>17</v>
+      </c>
+      <c r="B343" s="0">
+        <v>3</v>
       </c>
       <c r="C343" s="0">
         <v>3.0564403324972638</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>57</v>
+      <c r="A344" s="0">
+        <v>17</v>
+      </c>
+      <c r="B344" s="0">
+        <v>3</v>
       </c>
       <c r="C344" s="0">
         <v>3.781978629267571</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B345" s="0" t="s">
-        <v>57</v>
+      <c r="A345" s="0">
+        <v>17</v>
+      </c>
+      <c r="B345" s="0">
+        <v>3</v>
       </c>
       <c r="C345" s="0">
         <v>2.8730369154591475</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>57</v>
+      <c r="A346" s="0">
+        <v>17</v>
+      </c>
+      <c r="B346" s="0">
+        <v>3</v>
       </c>
       <c r="C346" s="0">
         <v>3.721733147013186</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>57</v>
+      <c r="A347" s="0">
+        <v>17</v>
+      </c>
+      <c r="B347" s="0">
+        <v>3</v>
       </c>
       <c r="C347" s="0">
         <v>4.0256827019147865</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>57</v>
+      <c r="A348" s="0">
+        <v>17</v>
+      </c>
+      <c r="B348" s="0">
+        <v>3</v>
       </c>
       <c r="C348" s="0">
         <v>4.0919021598257022</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>57</v>
+      <c r="A349" s="0">
+        <v>17</v>
+      </c>
+      <c r="B349" s="0">
+        <v>3</v>
       </c>
       <c r="C349" s="0">
         <v>4.5520898142251252</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>57</v>
+      <c r="A350" s="0">
+        <v>17</v>
+      </c>
+      <c r="B350" s="0">
+        <v>3</v>
       </c>
       <c r="C350" s="0">
         <v>4.9359563967587485</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>57</v>
+      <c r="A351" s="0">
+        <v>17</v>
+      </c>
+      <c r="B351" s="0">
+        <v>3</v>
       </c>
       <c r="C351" s="0">
         <v>3.8612829540839555</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B352" s="0" t="s">
-        <v>57</v>
+      <c r="A352" s="0">
+        <v>18</v>
+      </c>
+      <c r="B352" s="0">
+        <v>3</v>
       </c>
       <c r="C352" s="0">
         <v>6.2129725825235127</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>57</v>
+      <c r="A353" s="0">
+        <v>18</v>
+      </c>
+      <c r="B353" s="0">
+        <v>3</v>
       </c>
       <c r="C353" s="0">
         <v>2.8439163801131722</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>57</v>
+      <c r="A354" s="0">
+        <v>18</v>
+      </c>
+      <c r="B354" s="0">
+        <v>3</v>
       </c>
       <c r="C354" s="0">
         <v>6.5703904726440339</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>57</v>
+      <c r="A355" s="0">
+        <v>18</v>
+      </c>
+      <c r="B355" s="0">
+        <v>3</v>
       </c>
       <c r="C355" s="0">
         <v>5.001998120769529</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>57</v>
+      <c r="A356" s="0">
+        <v>18</v>
+      </c>
+      <c r="B356" s="0">
+        <v>3</v>
       </c>
       <c r="C356" s="0">
         <v>3.1651392342668454</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>57</v>
+      <c r="A357" s="0">
+        <v>18</v>
+      </c>
+      <c r="B357" s="0">
+        <v>3</v>
       </c>
       <c r="C357" s="0">
         <v>3.7114128353644742</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>57</v>
+      <c r="A358" s="0">
+        <v>18</v>
+      </c>
+      <c r="B358" s="0">
+        <v>3</v>
       </c>
       <c r="C358" s="0">
         <v>3.4749051416234287</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>57</v>
+      <c r="A359" s="0">
+        <v>18</v>
+      </c>
+      <c r="B359" s="0">
+        <v>3</v>
       </c>
       <c r="C359" s="0">
         <v>4.8860961677162242</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>57</v>
+      <c r="A360" s="0">
+        <v>18</v>
+      </c>
+      <c r="B360" s="0">
+        <v>3</v>
       </c>
       <c r="C360" s="0">
         <v>2.9196540872444317</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>57</v>
+      <c r="A361" s="0">
+        <v>18</v>
+      </c>
+      <c r="B361" s="0">
+        <v>3</v>
       </c>
       <c r="C361" s="0">
         <v>3.4632012128690954</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>58</v>
+      <c r="A362" s="0">
+        <v>1</v>
+      </c>
+      <c r="B362" s="0">
+        <v>5</v>
       </c>
       <c r="C362" s="0">
         <v>3.9930367104348465</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>58</v>
+      <c r="A363" s="0">
+        <v>1</v>
+      </c>
+      <c r="B363" s="0">
+        <v>5</v>
       </c>
       <c r="C363" s="0">
         <v>3.5999533554285965</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>58</v>
+      <c r="A364" s="0">
+        <v>1</v>
+      </c>
+      <c r="B364" s="0">
+        <v>5</v>
       </c>
       <c r="C364" s="0">
         <v>4.1228466728635746</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>58</v>
+      <c r="A365" s="0">
+        <v>1</v>
+      </c>
+      <c r="B365" s="0">
+        <v>5</v>
       </c>
       <c r="C365" s="0">
         <v>4.9328104931237977</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B366" s="0" t="s">
-        <v>58</v>
+      <c r="A366" s="0">
+        <v>1</v>
+      </c>
+      <c r="B366" s="0">
+        <v>5</v>
       </c>
       <c r="C366" s="0">
         <v>5.365743097488993</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>58</v>
+      <c r="A367" s="0">
+        <v>1</v>
+      </c>
+      <c r="B367" s="0">
+        <v>5</v>
       </c>
       <c r="C367" s="0">
         <v>8.2987633051081211</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B368" s="0" t="s">
-        <v>58</v>
+      <c r="A368" s="0">
+        <v>1</v>
+      </c>
+      <c r="B368" s="0">
+        <v>5</v>
       </c>
       <c r="C368" s="0">
         <v>5.9009986808319548</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B369" s="0" t="s">
-        <v>58</v>
+      <c r="A369" s="0">
+        <v>1</v>
+      </c>
+      <c r="B369" s="0">
+        <v>5</v>
       </c>
       <c r="C369" s="0">
         <v>3.9365702032409899</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>58</v>
+      <c r="A370" s="0">
+        <v>1</v>
+      </c>
+      <c r="B370" s="0">
+        <v>5</v>
       </c>
       <c r="C370" s="0">
         <v>3.0941610265205952</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>58</v>
+      <c r="A371" s="0">
+        <v>1</v>
+      </c>
+      <c r="B371" s="0">
+        <v>5</v>
       </c>
       <c r="C371" s="0">
         <v>8.0179337112009446</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>58</v>
+      <c r="A372" s="0">
+        <v>2</v>
+      </c>
+      <c r="B372" s="0">
+        <v>5</v>
       </c>
       <c r="C372" s="0">
         <v>9.3457512476345492</v>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>58</v>
+      <c r="A373" s="0">
+        <v>2</v>
+      </c>
+      <c r="B373" s="0">
+        <v>5</v>
       </c>
       <c r="C373" s="0">
         <v>8.6252468442989549</v>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>58</v>
+      <c r="A374" s="0">
+        <v>2</v>
+      </c>
+      <c r="B374" s="0">
+        <v>5</v>
       </c>
       <c r="C374" s="0">
         <v>7.6063742508618244</v>
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B375" s="0" t="s">
-        <v>58</v>
+      <c r="A375" s="0">
+        <v>2</v>
+      </c>
+      <c r="B375" s="0">
+        <v>5</v>
       </c>
       <c r="C375" s="0">
         <v>9.5001707707995582</v>
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B376" s="0" t="s">
-        <v>58</v>
+      <c r="A376" s="0">
+        <v>2</v>
+      </c>
+      <c r="B376" s="0">
+        <v>5</v>
       </c>
       <c r="C376" s="0">
         <v>8.4170206646346877</v>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B377" s="0" t="s">
-        <v>58</v>
+      <c r="A377" s="0">
+        <v>2</v>
+      </c>
+      <c r="B377" s="0">
+        <v>5</v>
       </c>
       <c r="C377" s="0">
         <v>16.141705181434816</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>58</v>
+      <c r="A378" s="0">
+        <v>2</v>
+      </c>
+      <c r="B378" s="0">
+        <v>5</v>
       </c>
       <c r="C378" s="0">
         <v>11.035558349478535</v>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>58</v>
+      <c r="A379" s="0">
+        <v>2</v>
+      </c>
+      <c r="B379" s="0">
+        <v>5</v>
       </c>
       <c r="C379" s="0">
         <v>9.2735203727895943</v>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>58</v>
+      <c r="A380" s="0">
+        <v>2</v>
+      </c>
+      <c r="B380" s="0">
+        <v>5</v>
       </c>
       <c r="C380" s="0">
         <v>8.5711461541711707</v>
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>58</v>
+      <c r="A381" s="0">
+        <v>2</v>
+      </c>
+      <c r="B381" s="0">
+        <v>5</v>
       </c>
       <c r="C381" s="0">
         <v>6.8441185211029083</v>
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>58</v>
+      <c r="A382" s="0">
+        <v>3</v>
+      </c>
+      <c r="B382" s="0">
+        <v>5</v>
       </c>
       <c r="C382" s="0">
         <v>6.7118938383393747</v>
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>58</v>
+      <c r="A383" s="0">
+        <v>3</v>
+      </c>
+      <c r="B383" s="0">
+        <v>5</v>
       </c>
       <c r="C383" s="0">
         <v>7.1170596079278505</v>
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>58</v>
+      <c r="A384" s="0">
+        <v>3</v>
+      </c>
+      <c r="B384" s="0">
+        <v>5</v>
       </c>
       <c r="C384" s="0">
         <v>4.5201096792377164</v>
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>58</v>
+      <c r="A385" s="0">
+        <v>3</v>
+      </c>
+      <c r="B385" s="0">
+        <v>5</v>
       </c>
       <c r="C385" s="0">
         <v>5.6740798307944225</v>
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>58</v>
+      <c r="A386" s="0">
+        <v>3</v>
+      </c>
+      <c r="B386" s="0">
+        <v>5</v>
       </c>
       <c r="C386" s="0">
         <v>7.4072498013736148</v>
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>58</v>
+      <c r="A387" s="0">
+        <v>3</v>
+      </c>
+      <c r="B387" s="0">
+        <v>5</v>
       </c>
       <c r="C387" s="0">
         <v>6.6382497019251296</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>58</v>
+      <c r="A388" s="0">
+        <v>3</v>
+      </c>
+      <c r="B388" s="0">
+        <v>5</v>
       </c>
       <c r="C388" s="0">
         <v>7.815955601417957</v>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B389" s="0" t="s">
-        <v>58</v>
+      <c r="A389" s="0">
+        <v>3</v>
+      </c>
+      <c r="B389" s="0">
+        <v>5</v>
       </c>
       <c r="C389" s="0">
         <v>8.1478473986270519</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B390" s="0" t="s">
-        <v>58</v>
+      <c r="A390" s="0">
+        <v>3</v>
+      </c>
+      <c r="B390" s="0">
+        <v>5</v>
       </c>
       <c r="C390" s="0">
         <v>8.1299012765551577</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>58</v>
+      <c r="A391" s="0">
+        <v>3</v>
+      </c>
+      <c r="B391" s="0">
+        <v>5</v>
       </c>
       <c r="C391" s="0">
         <v>6.8104967321942826</v>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>58</v>
+      <c r="A392" s="0">
+        <v>4</v>
+      </c>
+      <c r="B392" s="0">
+        <v>5</v>
       </c>
       <c r="C392" s="0">
         <v>6.5009293185981445</v>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>58</v>
+      <c r="A393" s="0">
+        <v>4</v>
+      </c>
+      <c r="B393" s="0">
+        <v>5</v>
       </c>
       <c r="C393" s="0">
         <v>2.9291340994811175</v>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>58</v>
+      <c r="A394" s="0">
+        <v>4</v>
+      </c>
+      <c r="B394" s="0">
+        <v>5</v>
       </c>
       <c r="C394" s="0">
         <v>7.1257913143687794</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>58</v>
+      <c r="A395" s="0">
+        <v>4</v>
+      </c>
+      <c r="B395" s="0">
+        <v>5</v>
       </c>
       <c r="C395" s="0">
         <v>8.1201476814409492</v>
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>58</v>
+      <c r="A396" s="0">
+        <v>4</v>
+      </c>
+      <c r="B396" s="0">
+        <v>5</v>
       </c>
       <c r="C396" s="0">
         <v>10.19645821434163</v>
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>58</v>
+      <c r="A397" s="0">
+        <v>4</v>
+      </c>
+      <c r="B397" s="0">
+        <v>5</v>
       </c>
       <c r="C397" s="0">
         <v>6.1415060305637441</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B398" s="0" t="s">
-        <v>58</v>
+      <c r="A398" s="0">
+        <v>4</v>
+      </c>
+      <c r="B398" s="0">
+        <v>5</v>
       </c>
       <c r="C398" s="0">
         <v>6.0393443149758488</v>
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>58</v>
+      <c r="A399" s="0">
+        <v>4</v>
+      </c>
+      <c r="B399" s="0">
+        <v>5</v>
       </c>
       <c r="C399" s="0">
         <v>6.2896949822326986</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>58</v>
+      <c r="A400" s="0">
+        <v>4</v>
+      </c>
+      <c r="B400" s="0">
+        <v>5</v>
       </c>
       <c r="C400" s="0">
         <v>4.6956650315482458</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>58</v>
+      <c r="A401" s="0">
+        <v>4</v>
+      </c>
+      <c r="B401" s="0">
+        <v>5</v>
       </c>
       <c r="C401" s="0">
         <v>6.5551799549804075</v>
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>58</v>
+      <c r="A402" s="0">
+        <v>5</v>
+      </c>
+      <c r="B402" s="0">
+        <v>5</v>
       </c>
       <c r="C402" s="0">
         <v>2.0854796303448553</v>
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>58</v>
+      <c r="A403" s="0">
+        <v>5</v>
+      </c>
+      <c r="B403" s="0">
+        <v>5</v>
       </c>
       <c r="C403" s="0">
         <v>3.3250049641042505</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>58</v>
+      <c r="A404" s="0">
+        <v>5</v>
+      </c>
+      <c r="B404" s="0">
+        <v>5</v>
       </c>
       <c r="C404" s="0">
         <v>4.1745256145555079</v>
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>58</v>
+      <c r="A405" s="0">
+        <v>5</v>
+      </c>
+      <c r="B405" s="0">
+        <v>5</v>
       </c>
       <c r="C405" s="0">
         <v>4.9389828980944817</v>
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B406" s="0" t="s">
-        <v>58</v>
+      <c r="A406" s="0">
+        <v>5</v>
+      </c>
+      <c r="B406" s="0">
+        <v>5</v>
       </c>
       <c r="C406" s="0">
         <v>5.3703374263639576</v>
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>58</v>
+      <c r="A407" s="0">
+        <v>5</v>
+      </c>
+      <c r="B407" s="0">
+        <v>5</v>
       </c>
       <c r="C407" s="0">
         <v>7.1728668909694751</v>
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>58</v>
+      <c r="A408" s="0">
+        <v>5</v>
+      </c>
+      <c r="B408" s="0">
+        <v>5</v>
       </c>
       <c r="C408" s="0">
         <v>7.1077793689669431</v>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>58</v>
+      <c r="A409" s="0">
+        <v>5</v>
+      </c>
+      <c r="B409" s="0">
+        <v>5</v>
       </c>
       <c r="C409" s="0">
         <v>2.1370887409914969</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>58</v>
+      <c r="A410" s="0">
+        <v>5</v>
+      </c>
+      <c r="B410" s="0">
+        <v>5</v>
       </c>
       <c r="C410" s="0">
         <v>8.3562962268536722</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>58</v>
+      <c r="A411" s="0">
+        <v>5</v>
+      </c>
+      <c r="B411" s="0">
+        <v>5</v>
       </c>
       <c r="C411" s="0">
         <v>6.0039614725335788</v>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>58</v>
+      <c r="A412" s="0">
+        <v>6</v>
+      </c>
+      <c r="B412" s="0">
+        <v>5</v>
       </c>
       <c r="C412" s="0">
         <v>5.4220518062257055</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>58</v>
+      <c r="A413" s="0">
+        <v>6</v>
+      </c>
+      <c r="B413" s="0">
+        <v>5</v>
       </c>
       <c r="C413" s="0">
         <v>5.3971806425572195</v>
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>58</v>
+      <c r="A414" s="0">
+        <v>6</v>
+      </c>
+      <c r="B414" s="0">
+        <v>5</v>
       </c>
       <c r="C414" s="0">
         <v>2.5756413214129452</v>
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>58</v>
+      <c r="A415" s="0">
+        <v>6</v>
+      </c>
+      <c r="B415" s="0">
+        <v>5</v>
       </c>
       <c r="C415" s="0">
         <v>1.8184022527730377</v>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>58</v>
+      <c r="A416" s="0">
+        <v>6</v>
+      </c>
+      <c r="B416" s="0">
+        <v>5</v>
       </c>
       <c r="C416" s="0">
         <v>6.42219500647417</v>
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>58</v>
+      <c r="A417" s="0">
+        <v>6</v>
+      </c>
+      <c r="B417" s="0">
+        <v>5</v>
       </c>
       <c r="C417" s="0">
         <v>4.3180443774781461</v>
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>58</v>
+      <c r="A418" s="0">
+        <v>6</v>
+      </c>
+      <c r="B418" s="0">
+        <v>5</v>
       </c>
       <c r="C418" s="0">
         <v>3.924619072867233</v>
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>58</v>
+      <c r="A419" s="0">
+        <v>6</v>
+      </c>
+      <c r="B419" s="0">
+        <v>5</v>
       </c>
       <c r="C419" s="0">
         <v>1.5952589410687332</v>
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>58</v>
+      <c r="A420" s="0">
+        <v>6</v>
+      </c>
+      <c r="B420" s="0">
+        <v>5</v>
       </c>
       <c r="C420" s="0">
         <v>6.7979859884701197</v>
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B421" s="0" t="s">
-        <v>58</v>
+      <c r="A421" s="0">
+        <v>6</v>
+      </c>
+      <c r="B421" s="0">
+        <v>5</v>
       </c>
       <c r="C421" s="0">
         <v>7.4762583055336584</v>
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>58</v>
+      <c r="A422" s="0">
+        <v>7</v>
+      </c>
+      <c r="B422" s="0">
+        <v>5</v>
       </c>
       <c r="C422" s="0">
         <v>13.163396567037269</v>
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B423" s="0" t="s">
-        <v>58</v>
+      <c r="A423" s="0">
+        <v>7</v>
+      </c>
+      <c r="B423" s="0">
+        <v>5</v>
       </c>
       <c r="C423" s="0">
         <v>11.164927322410746</v>
       </c>
     </row>
     <row r="424">
-      <c r="A424" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B424" s="0" t="s">
-        <v>58</v>
+      <c r="A424" s="0">
+        <v>7</v>
+      </c>
+      <c r="B424" s="0">
+        <v>5</v>
       </c>
       <c r="C424" s="0">
         <v>15.129116612978374</v>
       </c>
     </row>
     <row r="425">
-      <c r="A425" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B425" s="0" t="s">
-        <v>58</v>
+      <c r="A425" s="0">
+        <v>7</v>
+      </c>
+      <c r="B425" s="0">
+        <v>5</v>
       </c>
       <c r="C425" s="0">
         <v>8.0320691583713799</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>58</v>
+      <c r="A426" s="0">
+        <v>7</v>
+      </c>
+      <c r="B426" s="0">
+        <v>5</v>
       </c>
       <c r="C426" s="0">
         <v>11.717198796516998</v>
       </c>
     </row>
     <row r="427">
-      <c r="A427" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B427" s="0" t="s">
-        <v>58</v>
+      <c r="A427" s="0">
+        <v>7</v>
+      </c>
+      <c r="B427" s="0">
+        <v>5</v>
       </c>
       <c r="C427" s="0">
         <v>15.464858620103737</v>
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B428" s="0" t="s">
-        <v>58</v>
+      <c r="A428" s="0">
+        <v>7</v>
+      </c>
+      <c r="B428" s="0">
+        <v>5</v>
       </c>
       <c r="C428" s="0">
         <v>19.599744191303333</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B429" s="0" t="s">
-        <v>58</v>
+      <c r="A429" s="0">
+        <v>7</v>
+      </c>
+      <c r="B429" s="0">
+        <v>5</v>
       </c>
       <c r="C429" s="0">
         <v>4.5628306000118384</v>
       </c>
     </row>
     <row r="430">
-      <c r="A430" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B430" s="0" t="s">
-        <v>58</v>
+      <c r="A430" s="0">
+        <v>7</v>
+      </c>
+      <c r="B430" s="0">
+        <v>5</v>
       </c>
       <c r="C430" s="0">
         <v>17.907241889621986</v>
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B431" s="0" t="s">
-        <v>58</v>
+      <c r="A431" s="0">
+        <v>7</v>
+      </c>
+      <c r="B431" s="0">
+        <v>5</v>
       </c>
       <c r="C431" s="0">
         <v>15.470818093401359</v>
       </c>
     </row>
     <row r="432">
-      <c r="A432" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B432" s="0" t="s">
-        <v>58</v>
+      <c r="A432" s="0">
+        <v>8</v>
+      </c>
+      <c r="B432" s="0">
+        <v>5</v>
       </c>
       <c r="C432" s="0">
         <v>6.4736181424824224</v>
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B433" s="0" t="s">
-        <v>58</v>
+      <c r="A433" s="0">
+        <v>8</v>
+      </c>
+      <c r="B433" s="0">
+        <v>5</v>
       </c>
       <c r="C433" s="0">
         <v>5.9462231164038446</v>
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>58</v>
+      <c r="A434" s="0">
+        <v>8</v>
+      </c>
+      <c r="B434" s="0">
+        <v>5</v>
       </c>
       <c r="C434" s="0">
         <v>6.3963584161011866</v>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>58</v>
+      <c r="A435" s="0">
+        <v>8</v>
+      </c>
+      <c r="B435" s="0">
+        <v>5</v>
       </c>
       <c r="C435" s="0">
         <v>5.2115945962136259</v>
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>58</v>
+      <c r="A436" s="0">
+        <v>8</v>
+      </c>
+      <c r="B436" s="0">
+        <v>5</v>
       </c>
       <c r="C436" s="0">
         <v>1.3948706557864299</v>
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>58</v>
+      <c r="A437" s="0">
+        <v>8</v>
+      </c>
+      <c r="B437" s="0">
+        <v>5</v>
       </c>
       <c r="C437" s="0">
         <v>4.38139860071262</v>
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>58</v>
+      <c r="A438" s="0">
+        <v>8</v>
+      </c>
+      <c r="B438" s="0">
+        <v>5</v>
       </c>
       <c r="C438" s="0">
         <v>1.6927319376330112</v>
       </c>
     </row>
     <row r="439">
-      <c r="A439" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>58</v>
+      <c r="A439" s="0">
+        <v>8</v>
+      </c>
+      <c r="B439" s="0">
+        <v>5</v>
       </c>
       <c r="C439" s="0">
         <v>3.592284328099105</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B440" s="0" t="s">
-        <v>58</v>
+      <c r="A440" s="0">
+        <v>8</v>
+      </c>
+      <c r="B440" s="0">
+        <v>5</v>
       </c>
       <c r="C440" s="0">
         <v>7.3415746480853574</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>58</v>
+      <c r="A441" s="0">
+        <v>8</v>
+      </c>
+      <c r="B441" s="0">
+        <v>5</v>
       </c>
       <c r="C441" s="0">
         <v>3.282119464897284</v>
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>58</v>
+      <c r="A442" s="0">
+        <v>9</v>
+      </c>
+      <c r="B442" s="0">
+        <v>5</v>
       </c>
       <c r="C442" s="0">
         <v>6.9689538329171485</v>
       </c>
     </row>
     <row r="443">
-      <c r="A443" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>58</v>
+      <c r="A443" s="0">
+        <v>9</v>
+      </c>
+      <c r="B443" s="0">
+        <v>5</v>
       </c>
       <c r="C443" s="0">
         <v>2.5460883249740438</v>
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>58</v>
+      <c r="A444" s="0">
+        <v>9</v>
+      </c>
+      <c r="B444" s="0">
+        <v>5</v>
       </c>
       <c r="C444" s="0">
         <v>2.9092612860045408</v>
       </c>
     </row>
     <row r="445">
-      <c r="A445" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>58</v>
+      <c r="A445" s="0">
+        <v>9</v>
+      </c>
+      <c r="B445" s="0">
+        <v>5</v>
       </c>
       <c r="C445" s="0">
         <v>3.155417433411122</v>
       </c>
     </row>
     <row r="446">
-      <c r="A446" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>58</v>
+      <c r="A446" s="0">
+        <v>9</v>
+      </c>
+      <c r="B446" s="0">
+        <v>5</v>
       </c>
       <c r="C446" s="0">
         <v>2.9036147340651692</v>
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>58</v>
+      <c r="A447" s="0">
+        <v>9</v>
+      </c>
+      <c r="B447" s="0">
+        <v>5</v>
       </c>
       <c r="C447" s="0">
         <v>3.7646453428606037</v>
       </c>
     </row>
     <row r="448">
-      <c r="A448" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>58</v>
+      <c r="A448" s="0">
+        <v>9</v>
+      </c>
+      <c r="B448" s="0">
+        <v>5</v>
       </c>
       <c r="C448" s="0">
         <v>5.4529711453557308</v>
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>58</v>
+      <c r="A449" s="0">
+        <v>9</v>
+      </c>
+      <c r="B449" s="0">
+        <v>5</v>
       </c>
       <c r="C449" s="0">
         <v>4.0824418047418876</v>
       </c>
     </row>
     <row r="450">
-      <c r="A450" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>58</v>
+      <c r="A450" s="0">
+        <v>9</v>
+      </c>
+      <c r="B450" s="0">
+        <v>5</v>
       </c>
       <c r="C450" s="0">
         <v>6.1153746095330064</v>
       </c>
     </row>
     <row r="451">
-      <c r="A451" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>58</v>
+      <c r="A451" s="0">
+        <v>9</v>
+      </c>
+      <c r="B451" s="0">
+        <v>5</v>
       </c>
       <c r="C451" s="0">
         <v>3.4193722188003646</v>
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>58</v>
+      <c r="A452" s="0">
+        <v>10</v>
+      </c>
+      <c r="B452" s="0">
+        <v>5</v>
       </c>
       <c r="C452" s="0">
         <v>12.792324519946908</v>
       </c>
     </row>
     <row r="453">
-      <c r="A453" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>58</v>
+      <c r="A453" s="0">
+        <v>10</v>
+      </c>
+      <c r="B453" s="0">
+        <v>5</v>
       </c>
       <c r="C453" s="0">
         <v>7.0729948602269506</v>
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>58</v>
+      <c r="A454" s="0">
+        <v>10</v>
+      </c>
+      <c r="B454" s="0">
+        <v>5</v>
       </c>
       <c r="C454" s="0">
         <v>6.9450947724649446</v>
       </c>
     </row>
     <row r="455">
-      <c r="A455" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>58</v>
+      <c r="A455" s="0">
+        <v>10</v>
+      </c>
+      <c r="B455" s="0">
+        <v>5</v>
       </c>
       <c r="C455" s="0">
         <v>7.7143343815162986</v>
       </c>
     </row>
     <row r="456">
-      <c r="A456" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>58</v>
+      <c r="A456" s="0">
+        <v>10</v>
+      </c>
+      <c r="B456" s="0">
+        <v>5</v>
       </c>
       <c r="C456" s="0">
         <v>11.334582040505342</v>
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>58</v>
+      <c r="A457" s="0">
+        <v>10</v>
+      </c>
+      <c r="B457" s="0">
+        <v>5</v>
       </c>
       <c r="C457" s="0">
         <v>8.7981134062871025</v>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B458" s="0" t="s">
-        <v>58</v>
+      <c r="A458" s="0">
+        <v>10</v>
+      </c>
+      <c r="B458" s="0">
+        <v>5</v>
       </c>
       <c r="C458" s="0">
         <v>10.407590886392216</v>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>58</v>
+      <c r="A459" s="0">
+        <v>10</v>
+      </c>
+      <c r="B459" s="0">
+        <v>5</v>
       </c>
       <c r="C459" s="0">
         <v>9.2237370496242583</v>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>58</v>
+      <c r="A460" s="0">
+        <v>10</v>
+      </c>
+      <c r="B460" s="0">
+        <v>5</v>
       </c>
       <c r="C460" s="0">
         <v>2.7018784944845762</v>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B461" s="0" t="s">
-        <v>58</v>
+      <c r="A461" s="0">
+        <v>10</v>
+      </c>
+      <c r="B461" s="0">
+        <v>5</v>
       </c>
       <c r="C461" s="0">
         <v>6.3011302526491919</v>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B462" s="0" t="s">
-        <v>58</v>
+      <c r="A462" s="0">
+        <v>11</v>
+      </c>
+      <c r="B462" s="0">
+        <v>5</v>
       </c>
       <c r="C462" s="0">
         <v>4.4255562046299239</v>
       </c>
     </row>
     <row r="463">
-      <c r="A463" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>58</v>
+      <c r="A463" s="0">
+        <v>11</v>
+      </c>
+      <c r="B463" s="0">
+        <v>5</v>
       </c>
       <c r="C463" s="0">
         <v>5.5362144166956231</v>
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B464" s="0" t="s">
-        <v>58</v>
+      <c r="A464" s="0">
+        <v>11</v>
+      </c>
+      <c r="B464" s="0">
+        <v>5</v>
       </c>
       <c r="C464" s="0">
         <v>4.4500650928632366</v>
       </c>
     </row>
     <row r="465">
-      <c r="A465" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>58</v>
+      <c r="A465" s="0">
+        <v>11</v>
+      </c>
+      <c r="B465" s="0">
+        <v>5</v>
       </c>
       <c r="C465" s="0">
         <v>3.2784798626022225</v>
       </c>
     </row>
     <row r="466">
-      <c r="A466" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>58</v>
+      <c r="A466" s="0">
+        <v>11</v>
+      </c>
+      <c r="B466" s="0">
+        <v>5</v>
       </c>
       <c r="C466" s="0">
         <v>5.7418475688866435</v>
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>58</v>
+      <c r="A467" s="0">
+        <v>11</v>
+      </c>
+      <c r="B467" s="0">
+        <v>5</v>
       </c>
       <c r="C467" s="0">
         <v>4.6556771535766703</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>58</v>
+      <c r="A468" s="0">
+        <v>11</v>
+      </c>
+      <c r="B468" s="0">
+        <v>5</v>
       </c>
       <c r="C468" s="0">
         <v>6.936285840936522</v>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B469" s="0" t="s">
-        <v>58</v>
+      <c r="A469" s="0">
+        <v>11</v>
+      </c>
+      <c r="B469" s="0">
+        <v>5</v>
       </c>
       <c r="C469" s="0">
         <v>5.1633573991315282</v>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>58</v>
+      <c r="A470" s="0">
+        <v>11</v>
+      </c>
+      <c r="B470" s="0">
+        <v>5</v>
       </c>
       <c r="C470" s="0">
         <v>1.6938719417580212</v>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>58</v>
+      <c r="A471" s="0">
+        <v>11</v>
+      </c>
+      <c r="B471" s="0">
+        <v>5</v>
       </c>
       <c r="C471" s="0">
         <v>9.0002854976690525</v>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>58</v>
+      <c r="A472" s="0">
+        <v>12</v>
+      </c>
+      <c r="B472" s="0">
+        <v>5</v>
       </c>
       <c r="C472" s="0">
         <v>5.4866153522818637</v>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>58</v>
+      <c r="A473" s="0">
+        <v>12</v>
+      </c>
+      <c r="B473" s="0">
+        <v>5</v>
       </c>
       <c r="C473" s="0">
         <v>4.6156517417111047</v>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>58</v>
+      <c r="A474" s="0">
+        <v>12</v>
+      </c>
+      <c r="B474" s="0">
+        <v>5</v>
       </c>
       <c r="C474" s="0">
         <v>3.5719374028845592</v>
       </c>
     </row>
     <row r="475">
-      <c r="A475" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>58</v>
+      <c r="A475" s="0">
+        <v>12</v>
+      </c>
+      <c r="B475" s="0">
+        <v>5</v>
       </c>
       <c r="C475" s="0">
         <v>2.8403016385560198</v>
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>58</v>
+      <c r="A476" s="0">
+        <v>12</v>
+      </c>
+      <c r="B476" s="0">
+        <v>5</v>
       </c>
       <c r="C476" s="0">
         <v>3.3482749019143574</v>
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B477" s="0" t="s">
-        <v>58</v>
+      <c r="A477" s="0">
+        <v>12</v>
+      </c>
+      <c r="B477" s="0">
+        <v>5</v>
       </c>
       <c r="C477" s="0">
         <v>2.3919045488769486</v>
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B478" s="0" t="s">
-        <v>58</v>
+      <c r="A478" s="0">
+        <v>12</v>
+      </c>
+      <c r="B478" s="0">
+        <v>5</v>
       </c>
       <c r="C478" s="0">
         <v>3.9498487647193317</v>
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>58</v>
+      <c r="A479" s="0">
+        <v>12</v>
+      </c>
+      <c r="B479" s="0">
+        <v>5</v>
       </c>
       <c r="C479" s="0">
         <v>2.2780262472827335</v>
       </c>
     </row>
     <row r="480">
-      <c r="A480" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>58</v>
+      <c r="A480" s="0">
+        <v>12</v>
+      </c>
+      <c r="B480" s="0">
+        <v>5</v>
       </c>
       <c r="C480" s="0">
         <v>2.8305091972389249</v>
       </c>
     </row>
     <row r="481">
-      <c r="A481" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>58</v>
+      <c r="A481" s="0">
+        <v>12</v>
+      </c>
+      <c r="B481" s="0">
+        <v>5</v>
       </c>
       <c r="C481" s="0">
         <v>3.7893734378876962</v>
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>58</v>
+      <c r="A482" s="0">
+        <v>13</v>
+      </c>
+      <c r="B482" s="0">
+        <v>5</v>
       </c>
       <c r="C482" s="0">
         <v>3.0945330552378727</v>
       </c>
     </row>
     <row r="483">
-      <c r="A483" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>58</v>
+      <c r="A483" s="0">
+        <v>13</v>
+      </c>
+      <c r="B483" s="0">
+        <v>5</v>
       </c>
       <c r="C483" s="0">
         <v>1.0902971665098538</v>
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>58</v>
+      <c r="A484" s="0">
+        <v>13</v>
+      </c>
+      <c r="B484" s="0">
+        <v>5</v>
       </c>
       <c r="C484" s="0">
         <v>3.0924676450256823</v>
       </c>
     </row>
     <row r="485">
-      <c r="A485" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B485" s="0" t="s">
-        <v>58</v>
+      <c r="A485" s="0">
+        <v>13</v>
+      </c>
+      <c r="B485" s="0">
+        <v>5</v>
       </c>
       <c r="C485" s="0">
         <v>4.3296160229837168</v>
       </c>
     </row>
     <row r="486">
-      <c r="A486" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>58</v>
+      <c r="A486" s="0">
+        <v>13</v>
+      </c>
+      <c r="B486" s="0">
+        <v>5</v>
       </c>
       <c r="C486" s="0">
         <v>4.5300419388983499</v>
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B487" s="0" t="s">
-        <v>58</v>
+      <c r="A487" s="0">
+        <v>13</v>
+      </c>
+      <c r="B487" s="0">
+        <v>5</v>
       </c>
       <c r="C487" s="0">
         <v>4.5933292931083125</v>
       </c>
     </row>
     <row r="488">
-      <c r="A488" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>58</v>
+      <c r="A488" s="0">
+        <v>13</v>
+      </c>
+      <c r="B488" s="0">
+        <v>5</v>
       </c>
       <c r="C488" s="0">
         <v>5.2733819024157427</v>
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>58</v>
+      <c r="A489" s="0">
+        <v>13</v>
+      </c>
+      <c r="B489" s="0">
+        <v>5</v>
       </c>
       <c r="C489" s="0">
         <v>6.0176695121732946</v>
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>58</v>
+      <c r="A490" s="0">
+        <v>13</v>
+      </c>
+      <c r="B490" s="0">
+        <v>5</v>
       </c>
       <c r="C490" s="0">
         <v>5.6123374894027291</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>58</v>
+      <c r="A491" s="0">
+        <v>13</v>
+      </c>
+      <c r="B491" s="0">
+        <v>5</v>
       </c>
       <c r="C491" s="0">
         <v>7.4403711717003915</v>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>58</v>
+      <c r="A492" s="0">
+        <v>14</v>
+      </c>
+      <c r="B492" s="0">
+        <v>5</v>
       </c>
       <c r="C492" s="0">
         <v>6.2978862759240162</v>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B493" s="0" t="s">
-        <v>58</v>
+      <c r="A493" s="0">
+        <v>14</v>
+      </c>
+      <c r="B493" s="0">
+        <v>5</v>
       </c>
       <c r="C493" s="0">
         <v>5.8947391698492275</v>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B494" s="0" t="s">
-        <v>58</v>
+      <c r="A494" s="0">
+        <v>14</v>
+      </c>
+      <c r="B494" s="0">
+        <v>5</v>
       </c>
       <c r="C494" s="0">
         <v>6.0821995589222162</v>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B495" s="0" t="s">
-        <v>58</v>
+      <c r="A495" s="0">
+        <v>14</v>
+      </c>
+      <c r="B495" s="0">
+        <v>5</v>
       </c>
       <c r="C495" s="0">
         <v>6.7899922908978736</v>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B496" s="0" t="s">
-        <v>58</v>
+      <c r="A496" s="0">
+        <v>14</v>
+      </c>
+      <c r="B496" s="0">
+        <v>5</v>
       </c>
       <c r="C496" s="0">
         <v>8.2292908787939147</v>
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B497" s="0" t="s">
-        <v>58</v>
+      <c r="A497" s="0">
+        <v>14</v>
+      </c>
+      <c r="B497" s="0">
+        <v>5</v>
       </c>
       <c r="C497" s="0">
         <v>10.967375533880254</v>
       </c>
     </row>
     <row r="498">
-      <c r="A498" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>58</v>
+      <c r="A498" s="0">
+        <v>14</v>
+      </c>
+      <c r="B498" s="0">
+        <v>5</v>
       </c>
       <c r="C498" s="0">
         <v>7.6732697096444449</v>
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>58</v>
+      <c r="A499" s="0">
+        <v>14</v>
+      </c>
+      <c r="B499" s="0">
+        <v>5</v>
       </c>
       <c r="C499" s="0">
         <v>8.6436373222172413</v>
       </c>
     </row>
     <row r="500">
-      <c r="A500" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B500" s="0" t="s">
-        <v>58</v>
+      <c r="A500" s="0">
+        <v>14</v>
+      </c>
+      <c r="B500" s="0">
+        <v>5</v>
       </c>
       <c r="C500" s="0">
         <v>6.7654247344705079</v>
       </c>
     </row>
     <row r="501">
-      <c r="A501" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B501" s="0" t="s">
-        <v>58</v>
+      <c r="A501" s="0">
+        <v>14</v>
+      </c>
+      <c r="B501" s="0">
+        <v>5</v>
       </c>
       <c r="C501" s="0">
         <v>9.5147013998487715</v>
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B502" s="0" t="s">
-        <v>58</v>
+      <c r="A502" s="0">
+        <v>15</v>
+      </c>
+      <c r="B502" s="0">
+        <v>5</v>
       </c>
       <c r="C502" s="0">
         <v>1.6140092649788145</v>
       </c>
     </row>
     <row r="503">
-      <c r="A503" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B503" s="0" t="s">
-        <v>58</v>
+      <c r="A503" s="0">
+        <v>15</v>
+      </c>
+      <c r="B503" s="0">
+        <v>5</v>
       </c>
       <c r="C503" s="0">
         <v>4.3045094192616942</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B504" s="0" t="s">
-        <v>58</v>
+      <c r="A504" s="0">
+        <v>15</v>
+      </c>
+      <c r="B504" s="0">
+        <v>5</v>
       </c>
       <c r="C504" s="0">
         <v>2.6615666083489997</v>
       </c>
     </row>
     <row r="505">
-      <c r="A505" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B505" s="0" t="s">
-        <v>58</v>
+      <c r="A505" s="0">
+        <v>15</v>
+      </c>
+      <c r="B505" s="0">
+        <v>5</v>
       </c>
       <c r="C505" s="0">
         <v>4.9702623317312167</v>
       </c>
     </row>
     <row r="506">
-      <c r="A506" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>58</v>
+      <c r="A506" s="0">
+        <v>15</v>
+      </c>
+      <c r="B506" s="0">
+        <v>5</v>
       </c>
       <c r="C506" s="0">
         <v>1.4781384303811516</v>
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B507" s="0" t="s">
-        <v>58</v>
+      <c r="A507" s="0">
+        <v>15</v>
+      </c>
+      <c r="B507" s="0">
+        <v>5</v>
       </c>
       <c r="C507" s="0">
         <v>2.4256645826188525</v>
       </c>
     </row>
     <row r="508">
-      <c r="A508" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B508" s="0" t="s">
-        <v>58</v>
+      <c r="A508" s="0">
+        <v>15</v>
+      </c>
+      <c r="B508" s="0">
+        <v>5</v>
       </c>
       <c r="C508" s="0">
         <v>6.2324141408685563</v>
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B509" s="0" t="s">
-        <v>58</v>
+      <c r="A509" s="0">
+        <v>15</v>
+      </c>
+      <c r="B509" s="0">
+        <v>5</v>
       </c>
       <c r="C509" s="0">
         <v>5.8803923397823405</v>
       </c>
     </row>
     <row r="510">
-      <c r="A510" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B510" s="0" t="s">
-        <v>58</v>
+      <c r="A510" s="0">
+        <v>15</v>
+      </c>
+      <c r="B510" s="0">
+        <v>5</v>
       </c>
       <c r="C510" s="0">
         <v>5.9292798408744627</v>
       </c>
     </row>
     <row r="511">
-      <c r="A511" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B511" s="0" t="s">
-        <v>58</v>
+      <c r="A511" s="0">
+        <v>15</v>
+      </c>
+      <c r="B511" s="0">
+        <v>5</v>
       </c>
       <c r="C511" s="0">
         <v>6.5153162513558156</v>
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B512" s="0" t="s">
-        <v>58</v>
+      <c r="A512" s="0">
+        <v>16</v>
+      </c>
+      <c r="B512" s="0">
+        <v>5</v>
       </c>
       <c r="C512" s="0">
         <v>4.3618050020384622</v>
       </c>
     </row>
     <row r="513">
-      <c r="A513" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B513" s="0" t="s">
-        <v>58</v>
+      <c r="A513" s="0">
+        <v>16</v>
+      </c>
+      <c r="B513" s="0">
+        <v>5</v>
       </c>
       <c r="C513" s="0">
         <v>6.7495832119487185</v>
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B514" s="0" t="s">
-        <v>58</v>
+      <c r="A514" s="0">
+        <v>16</v>
+      </c>
+      <c r="B514" s="0">
+        <v>5</v>
       </c>
       <c r="C514" s="0">
         <v>3.896069192901126</v>
       </c>
     </row>
     <row r="515">
-      <c r="A515" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B515" s="0" t="s">
-        <v>58</v>
+      <c r="A515" s="0">
+        <v>16</v>
+      </c>
+      <c r="B515" s="0">
+        <v>5</v>
       </c>
       <c r="C515" s="0">
         <v>3.2432553422268771</v>
       </c>
     </row>
     <row r="516">
-      <c r="A516" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B516" s="0" t="s">
-        <v>58</v>
+      <c r="A516" s="0">
+        <v>16</v>
+      </c>
+      <c r="B516" s="0">
+        <v>5</v>
       </c>
       <c r="C516" s="0">
         <v>1.8630674727363175</v>
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B517" s="0" t="s">
-        <v>58</v>
+      <c r="A517" s="0">
+        <v>16</v>
+      </c>
+      <c r="B517" s="0">
+        <v>5</v>
       </c>
       <c r="C517" s="0">
         <v>3.3906369635016826</v>
       </c>
     </row>
     <row r="518">
-      <c r="A518" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B518" s="0" t="s">
-        <v>58</v>
+      <c r="A518" s="0">
+        <v>16</v>
+      </c>
+      <c r="B518" s="0">
+        <v>5</v>
       </c>
       <c r="C518" s="0">
         <v>3.3582718714033395</v>
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B519" s="0" t="s">
-        <v>58</v>
+      <c r="A519" s="0">
+        <v>16</v>
+      </c>
+      <c r="B519" s="0">
+        <v>5</v>
       </c>
       <c r="C519" s="0">
         <v>2.4117349572465878</v>
       </c>
     </row>
     <row r="520">
-      <c r="A520" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B520" s="0" t="s">
-        <v>58</v>
+      <c r="A520" s="0">
+        <v>16</v>
+      </c>
+      <c r="B520" s="0">
+        <v>5</v>
       </c>
       <c r="C520" s="0">
         <v>4.2358901116097947</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>58</v>
+      <c r="A521" s="0">
+        <v>16</v>
+      </c>
+      <c r="B521" s="0">
+        <v>5</v>
       </c>
       <c r="C521" s="0">
         <v>3.9683825538929649</v>
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B522" s="0" t="s">
-        <v>58</v>
+      <c r="A522" s="0">
+        <v>17</v>
+      </c>
+      <c r="B522" s="0">
+        <v>5</v>
       </c>
       <c r="C522" s="0">
         <v>4.538461145167016</v>
       </c>
     </row>
     <row r="523">
-      <c r="A523" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B523" s="0" t="s">
-        <v>58</v>
+      <c r="A523" s="0">
+        <v>17</v>
+      </c>
+      <c r="B523" s="0">
+        <v>5</v>
       </c>
       <c r="C523" s="0">
         <v>2.6527808035791351</v>
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>58</v>
+      <c r="A524" s="0">
+        <v>17</v>
+      </c>
+      <c r="B524" s="0">
+        <v>5</v>
       </c>
       <c r="C524" s="0">
         <v>2.9862350622612897</v>
       </c>
     </row>
     <row r="525">
-      <c r="A525" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B525" s="0" t="s">
-        <v>58</v>
+      <c r="A525" s="0">
+        <v>17</v>
+      </c>
+      <c r="B525" s="0">
+        <v>5</v>
       </c>
       <c r="C525" s="0">
         <v>3.9210069670810053</v>
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B526" s="0" t="s">
-        <v>58</v>
+      <c r="A526" s="0">
+        <v>17</v>
+      </c>
+      <c r="B526" s="0">
+        <v>5</v>
       </c>
       <c r="C526" s="0">
         <v>5.0429549008744123</v>
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B527" s="0" t="s">
-        <v>58</v>
+      <c r="A527" s="0">
+        <v>17</v>
+      </c>
+      <c r="B527" s="0">
+        <v>5</v>
       </c>
       <c r="C527" s="0">
         <v>1.74229378975847</v>
       </c>
     </row>
     <row r="528">
-      <c r="A528" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B528" s="0" t="s">
-        <v>58</v>
+      <c r="A528" s="0">
+        <v>17</v>
+      </c>
+      <c r="B528" s="0">
+        <v>5</v>
       </c>
       <c r="C528" s="0">
         <v>3.5872529860012494</v>
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B529" s="0" t="s">
-        <v>58</v>
+      <c r="A529" s="0">
+        <v>17</v>
+      </c>
+      <c r="B529" s="0">
+        <v>5</v>
       </c>
       <c r="C529" s="0">
         <v>3.2643540944821847</v>
       </c>
     </row>
     <row r="530">
-      <c r="A530" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B530" s="0" t="s">
-        <v>58</v>
+      <c r="A530" s="0">
+        <v>17</v>
+      </c>
+      <c r="B530" s="0">
+        <v>5</v>
       </c>
       <c r="C530" s="0">
         <v>5.1059667805579014</v>
       </c>
     </row>
     <row r="531">
-      <c r="A531" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B531" s="0" t="s">
-        <v>58</v>
+      <c r="A531" s="0">
+        <v>17</v>
+      </c>
+      <c r="B531" s="0">
+        <v>5</v>
       </c>
       <c r="C531" s="0">
         <v>3.95363016886723</v>
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B532" s="0" t="s">
-        <v>58</v>
+      <c r="A532" s="0">
+        <v>18</v>
+      </c>
+      <c r="B532" s="0">
+        <v>5</v>
       </c>
       <c r="C532" s="0">
         <v>7.2042150778974472</v>
       </c>
     </row>
     <row r="533">
-      <c r="A533" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B533" s="0" t="s">
-        <v>58</v>
+      <c r="A533" s="0">
+        <v>18</v>
+      </c>
+      <c r="B533" s="0">
+        <v>5</v>
       </c>
       <c r="C533" s="0">
         <v>4.02403630485012</v>
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B534" s="0" t="s">
-        <v>58</v>
+      <c r="A534" s="0">
+        <v>18</v>
+      </c>
+      <c r="B534" s="0">
+        <v>5</v>
       </c>
       <c r="C534" s="0">
         <v>4.1941162716281903</v>
       </c>
     </row>
     <row r="535">
-      <c r="A535" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B535" s="0" t="s">
-        <v>58</v>
+      <c r="A535" s="0">
+        <v>18</v>
+      </c>
+      <c r="B535" s="0">
+        <v>5</v>
       </c>
       <c r="C535" s="0">
         <v>3.118386552254611</v>
       </c>
     </row>
     <row r="536">
-      <c r="A536" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B536" s="0" t="s">
-        <v>58</v>
+      <c r="A536" s="0">
+        <v>18</v>
+      </c>
+      <c r="B536" s="0">
+        <v>5</v>
       </c>
       <c r="C536" s="0">
         <v>4.0170418150115248</v>
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B537" s="0" t="s">
-        <v>58</v>
+      <c r="A537" s="0">
+        <v>18</v>
+      </c>
+      <c r="B537" s="0">
+        <v>5</v>
       </c>
       <c r="C537" s="0">
         <v>7.5816866507262581</v>
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B538" s="0" t="s">
-        <v>58</v>
+      <c r="A538" s="0">
+        <v>18</v>
+      </c>
+      <c r="B538" s="0">
+        <v>5</v>
       </c>
       <c r="C538" s="0">
         <v>5.3153414740716833</v>
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B539" s="0" t="s">
-        <v>58</v>
+      <c r="A539" s="0">
+        <v>18</v>
+      </c>
+      <c r="B539" s="0">
+        <v>5</v>
       </c>
       <c r="C539" s="0">
         <v>3.5391281388268587</v>
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B540" s="0" t="s">
-        <v>58</v>
+      <c r="A540" s="0">
+        <v>18</v>
+      </c>
+      <c r="B540" s="0">
+        <v>5</v>
       </c>
       <c r="C540" s="0">
         <v>3.6055992259408294</v>
       </c>
     </row>
     <row r="541">
-      <c r="A541" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B541" s="0" t="s">
-        <v>58</v>
+      <c r="A541" s="0">
+        <v>18</v>
+      </c>
+      <c r="B541" s="0">
+        <v>5</v>
       </c>
       <c r="C541" s="0">
         <v>3.1800409731311126</v>

--- a/HME_R_Analysis/HMEData-for-R/Index Normal Force.xlsx
+++ b/HME_R_Analysis/HMEData-for-R/Index Normal Force.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="66">
   <si>
     <t>SubjectNum</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>SubjectData</t>
+  </si>
+  <si>
+    <t>SubjectNum</t>
+  </si>
+  <si>
+    <t>Mappings</t>
   </si>
   <si>
     <t>SubjectData</t>
@@ -257,13 +266,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
